--- a/jadex-applications-micro/EvalHSU_SSPvsAwarenessDynservices1000.xlsx
+++ b/jadex-applications-micro/EvalHSU_SSPvsAwarenessDynservices1000.xlsx
@@ -204,283 +204,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>655.13187210000001</c:v>
+                  <c:v>682.60620249999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>544.74700519999999</c:v>
+                  <c:v>560.5261385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>543.13172510000004</c:v>
+                  <c:v>559.29936250000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>538.54611039999998</c:v>
+                  <c:v>562.92558150000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>542.25183649999997</c:v>
+                  <c:v>556.13270799999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>550.54440920000002</c:v>
+                  <c:v>560.97705099999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>555.90140029999998</c:v>
+                  <c:v>558.21174599999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>557.12588879999998</c:v>
+                  <c:v>553.81332999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>555.36265109999999</c:v>
+                  <c:v>555.07471150000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>559.14336809999998</c:v>
+                  <c:v>550.87748350000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>561.00485370000001</c:v>
+                  <c:v>557.87154550000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>568.04548729999999</c:v>
+                  <c:v>567.08776350000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>570.36099429999899</c:v>
+                  <c:v>567.68824700000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>573.42256769999995</c:v>
+                  <c:v>564.06906700000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>573.51187049999999</c:v>
+                  <c:v>562.50868849999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>570.48889210000004</c:v>
+                  <c:v>568.13241449999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>576.16153670000006</c:v>
+                  <c:v>579.72050750000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>580.248082799999</c:v>
+                  <c:v>586.9920085</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>581.62736259999997</c:v>
+                  <c:v>583.45890450000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>592.7555979</c:v>
+                  <c:v>577.53867600000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>607.46647110000004</c:v>
+                  <c:v>579.32473049999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>595.79136310000001</c:v>
+                  <c:v>573.104333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>601.63586759999998</c:v>
+                  <c:v>575.18102499999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>607.97076040000002</c:v>
+                  <c:v>571.78693499999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>605.5439844</c:v>
+                  <c:v>589.64836149999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>606.447628299999</c:v>
+                  <c:v>586.39592300000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>606.26236540000002</c:v>
+                  <c:v>582.09766100000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>616.53766410000003</c:v>
+                  <c:v>588.99699450000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>614.99854849999997</c:v>
+                  <c:v>589.01752299999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>624.22749439999996</c:v>
+                  <c:v>593.7488085</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>634.43340420000004</c:v>
+                  <c:v>591.15169749999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>622.35460069999999</c:v>
+                  <c:v>592.85138199999994</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>629.55463020000002</c:v>
+                  <c:v>599.99604099999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>642.68969860000004</c:v>
+                  <c:v>601.81567600000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>645.74857410000004</c:v>
+                  <c:v>601.85057600000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>654.46064960000001</c:v>
+                  <c:v>601.48266000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>647.75127199999997</c:v>
+                  <c:v>604.2192245</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>657.14451179999901</c:v>
+                  <c:v>611.72241350000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>660.90593149999995</c:v>
+                  <c:v>611.34188749999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>668.32366019999995</c:v>
+                  <c:v>615.26240900000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>663.52934960000005</c:v>
+                  <c:v>617.12676850000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>682.28729369999996</c:v>
+                  <c:v>626.538456</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>670.97268159999999</c:v>
+                  <c:v>643.03101400000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>670.33219439999903</c:v>
+                  <c:v>632.6279055</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>693.96721149999996</c:v>
+                  <c:v>620.31028649999996</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>691.30091640000001</c:v>
+                  <c:v>627.52019900000005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>714.89584260000004</c:v>
+                  <c:v>629.54043549999994</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>710.39536629999998</c:v>
+                  <c:v>644.09458199999995</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>715.72599149999996</c:v>
+                  <c:v>641.22472349999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>705.21486909999999</c:v>
+                  <c:v>636.10484650000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>708.96174199999996</c:v>
+                  <c:v>637.64410899999996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>683.11864509999998</c:v>
+                  <c:v>669.06136849999996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>713.52932020000003</c:v>
+                  <c:v>649.62709900000004</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>695.31244219999996</c:v>
+                  <c:v>650.16819450000003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>702.66095749999999</c:v>
+                  <c:v>653.35772399999996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>708.6841263</c:v>
+                  <c:v>650.92895350000003</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>731.85060520000002</c:v>
+                  <c:v>654.60283000000004</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>757.37587789999998</c:v>
+                  <c:v>659.43632249999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>750.27028399999995</c:v>
+                  <c:v>668.486986</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>750.91971550000005</c:v>
+                  <c:v>659.61639400000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>750.38029180000001</c:v>
+                  <c:v>661.56551049999996</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>763.387579799999</c:v>
+                  <c:v>657.07969800000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>753.46990249999999</c:v>
+                  <c:v>695.16988049999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>785.36253399999998</c:v>
+                  <c:v>676.25779</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>781.08213209999997</c:v>
+                  <c:v>692.78568800000005</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>821.84259839999902</c:v>
+                  <c:v>686.08167749999996</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>786.65482810000003</c:v>
+                  <c:v>692.44372750000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>787.32684200000006</c:v>
+                  <c:v>679.10946550000006</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>796.39648030000001</c:v>
+                  <c:v>682.18901649999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>803.12803010000005</c:v>
+                  <c:v>680.43404899999996</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>810.58496950000006</c:v>
+                  <c:v>680.44328800000005</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>816.94446789999995</c:v>
+                  <c:v>691.12222250000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>790.37260800000001</c:v>
+                  <c:v>690.71398150000005</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>818.59197900000004</c:v>
+                  <c:v>708.60664299999996</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>827.83638079999901</c:v>
+                  <c:v>715.80951700000003</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>836.47276209999995</c:v>
+                  <c:v>697.485006</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>836.76944070000002</c:v>
+                  <c:v>715.46095749999995</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>805.19876829999998</c:v>
+                  <c:v>702.38404600000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>839.63167410000005</c:v>
+                  <c:v>714.04648399999996</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>799.020573299999</c:v>
+                  <c:v>722.31776549999995</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>829.83825790000003</c:v>
+                  <c:v>728.11525749999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>815.25422689999903</c:v>
+                  <c:v>723.60348950000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>831.99768310000002</c:v>
+                  <c:v>725.84998900000005</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>814.63423979999902</c:v>
+                  <c:v>734.49402450000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>849.64674829999899</c:v>
+                  <c:v>733.002566</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>829.44764269999996</c:v>
+                  <c:v>720.08094449999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>848.8098248</c:v>
+                  <c:v>729.30786699999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>834.71002290000001</c:v>
+                  <c:v>1611.5438079999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2664.8563091000001</c:v>
+                  <c:v>822.111445</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4212.2109246999999</c:v>
+                  <c:v>3221.4653564999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7014.4400613999996</c:v>
+                  <c:v>1489.3814795000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14707.057262099999</c:v>
+                  <c:v>1290.999047</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>45568.119862400003</c:v>
+                  <c:v>1307.9718455</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1339.2140185000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1448.343867</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1512.1664344999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1297.7208005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1292.6110415000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>796.728793</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1620.1887234999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,6 +824,27 @@
                 <c:pt idx="92">
                   <c:v>930</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -813,283 +855,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>7.5239827000000004</c:v>
+                  <c:v>17.284111500000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1032481000000001</c:v>
+                  <c:v>7.9049785000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.873172800000001</c:v>
+                  <c:v>10.4965175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.413021499999999</c:v>
+                  <c:v>11.065181000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.9303612</c:v>
+                  <c:v>24.377447</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.083818399999998</c:v>
+                  <c:v>22.7372975</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.274213499999998</c:v>
+                  <c:v>21.1427525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.250385099999999</c:v>
+                  <c:v>22.876310499999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.2073906</c:v>
+                  <c:v>16.8962535</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.089199899999901</c:v>
+                  <c:v>17.442774499999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.6368063</c:v>
+                  <c:v>23.728866</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.768736500000003</c:v>
+                  <c:v>24.518659499999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.765261500000001</c:v>
+                  <c:v>27.686927000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.337136299999997</c:v>
+                  <c:v>37.122516500000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.786304000000001</c:v>
+                  <c:v>36.602536999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.681223099999997</c:v>
+                  <c:v>46.946550000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.833477299999998</c:v>
+                  <c:v>29.577828499999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.3901313</c:v>
+                  <c:v>53.773004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56.250311500000002</c:v>
+                  <c:v>31.207713500000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54.438771199999998</c:v>
+                  <c:v>32.380526500000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63.316636199999998</c:v>
+                  <c:v>55.546300500000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>71.196246200000004</c:v>
+                  <c:v>39.703644500000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>66.537898499999997</c:v>
+                  <c:v>55.033506500000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>81.926006299999997</c:v>
+                  <c:v>51.453918999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>86.8605321</c:v>
+                  <c:v>50.742429999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>71.016379499999999</c:v>
+                  <c:v>44.774397</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>78.016863400000005</c:v>
+                  <c:v>49.637803499999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>89.900197899999995</c:v>
+                  <c:v>45.439255500000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>84.969367300000002</c:v>
+                  <c:v>49.350538999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>98.818417799999906</c:v>
+                  <c:v>49.359777000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>91.980262299999893</c:v>
+                  <c:v>54.645209000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>102.117164</c:v>
+                  <c:v>53.083657500000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>106.4007038</c:v>
+                  <c:v>58.190190000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>98.852320599999999</c:v>
+                  <c:v>63.730772000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>118.6012466</c:v>
+                  <c:v>75.450693000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>115.9266808</c:v>
+                  <c:v>81.369602</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>127.3744997</c:v>
+                  <c:v>65.650120999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>126.6731872</c:v>
+                  <c:v>77.647627999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>121.5853362</c:v>
+                  <c:v>72.858567500000007</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>149.94630100000001</c:v>
+                  <c:v>71.597184499999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>147.0364692</c:v>
+                  <c:v>76.793606999999994</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>140.8231395</c:v>
+                  <c:v>77.601290000000006</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>152.0114964</c:v>
+                  <c:v>79.868025000000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>161.18208079999999</c:v>
+                  <c:v>79.863039499999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>167.48175090000001</c:v>
+                  <c:v>87.954835500000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>187.4819852</c:v>
+                  <c:v>85.259329500000007</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>175.20460439999999</c:v>
+                  <c:v>91.340421000000006</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>190.32283889999999</c:v>
+                  <c:v>96.420851999999996</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>194.44754030000001</c:v>
+                  <c:v>92.685241000000005</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>187.9533691</c:v>
+                  <c:v>100.815896</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>192.05786359999999</c:v>
+                  <c:v>99.854241500000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>202.56485090000001</c:v>
+                  <c:v>98.408681000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>215.36954319999899</c:v>
+                  <c:v>99.8432435</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>226.8920889</c:v>
+                  <c:v>100.2463525</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>223.17826840000001</c:v>
+                  <c:v>105.01854950000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>207.92685700000001</c:v>
+                  <c:v>119.1211965</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>210.47276189999999</c:v>
+                  <c:v>119.61727399999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>231.9141285</c:v>
+                  <c:v>117.230442</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>282.61470789999998</c:v>
+                  <c:v>121.12794150000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>241.6300023</c:v>
+                  <c:v>128.212919</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>244.0909743</c:v>
+                  <c:v>121.5973315</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>275.18920750000001</c:v>
+                  <c:v>133.62621899999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>259.28944960000001</c:v>
+                  <c:v>134.3145395</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>314.79900300000003</c:v>
+                  <c:v>130.31204600000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>328.8233156</c:v>
+                  <c:v>138.212626</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>304.07765979999999</c:v>
+                  <c:v>138.073466</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>330.688320199999</c:v>
+                  <c:v>144.829973</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>343.8158517</c:v>
+                  <c:v>139.97477850000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>342.31145980000002</c:v>
+                  <c:v>151.7320915</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>329.05409479999997</c:v>
+                  <c:v>153.49219199999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>348.10971480000001</c:v>
+                  <c:v>150.0111445</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>331.92923239999999</c:v>
+                  <c:v>154.55282650000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>366.1037025</c:v>
+                  <c:v>164.8902415</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>339.5864507</c:v>
+                  <c:v>161.68516750000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>347.22847710000002</c:v>
+                  <c:v>164.716328</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>366.31524309999998</c:v>
+                  <c:v>169.8489625</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>399.90010999999998</c:v>
+                  <c:v>177.4678495</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>403.88400899999999</c:v>
+                  <c:v>179.24774500000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>388.8741402</c:v>
+                  <c:v>186.20485400000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>375.58410429999998</c:v>
+                  <c:v>204.76530600000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>391.17246130000001</c:v>
+                  <c:v>185.98416349999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>401.04978369999998</c:v>
+                  <c:v>180.51836650000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>373.652584399999</c:v>
+                  <c:v>195.8545355</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>382.31195839999998</c:v>
+                  <c:v>195.56052450000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>397.33678420000001</c:v>
+                  <c:v>195.1590295</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>419.29918620000001</c:v>
+                  <c:v>204.48522600000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>387.960114199999</c:v>
+                  <c:v>230.80475150000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>397.01503050000002</c:v>
+                  <c:v>341.61551450000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>423.37555550000002</c:v>
+                  <c:v>328.19165650000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>440.87648630000001</c:v>
+                  <c:v>382.36967499999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1335.1917882999901</c:v>
+                  <c:v>372.56001149999997</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6809.5678276999997</c:v>
+                  <c:v>436.27348050000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10876.6330084</c:v>
+                  <c:v>443.84896300000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>444.599311</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>431.71830749999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>580.22670300000004</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>429.9725785</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>533.9545425</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>387.67065050000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>547.13937999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,88 +1197,175 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1142.8130216</c:v>
+                  <c:v>668.98159699999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1040.1924483</c:v>
+                  <c:v>563.49967000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1050.9284261</c:v>
+                  <c:v>544.68612050000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1099.5813180999901</c:v>
+                  <c:v>550.73891049999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1132.4999487</c:v>
+                  <c:v>552.95945449999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1154.5298043</c:v>
+                  <c:v>552.74243000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1253.7108292</c:v>
+                  <c:v>548.29943500000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1351.9114307</c:v>
+                  <c:v>545.61639449999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1522.2896694999999</c:v>
+                  <c:v>550.70034450000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1470.4303249</c:v>
+                  <c:v>555.50406899999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1520.51244209999</c:v>
+                  <c:v>558.35838450000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1614.9334408</c:v>
+                  <c:v>577.79866549999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1671.2443433999999</c:v>
+                  <c:v>580.84463649999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1703.0525699</c:v>
+                  <c:v>580.86149950000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1584.5921549</c:v>
+                  <c:v>592.04281849999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1793.0711342</c:v>
+                  <c:v>612.17464600000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2316.8298261999998</c:v>
+                  <c:v>614.22714299999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2582.5212991999902</c:v>
+                  <c:v>620.47906699999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2798.0397095999901</c:v>
+                  <c:v>627.4503995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2909.4643593999999</c:v>
+                  <c:v>639.69000649999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3110.2196936</c:v>
+                  <c:v>634.71090249999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3376.6070823999999</c:v>
+                  <c:v>639.46594300000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3826.7553046999901</c:v>
+                  <c:v>655.79588000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4208.0516751999903</c:v>
+                  <c:v>668.285798</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5319.2960481</c:v>
+                  <c:v>671.53940899999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5473.5671825999998</c:v>
+                  <c:v>690.46777599999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6864.0354863999901</c:v>
+                  <c:v>705.92272149999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7389.1427233000004</c:v>
+                  <c:v>706.01818300000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>717.04010600000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>765.23454800000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>769.37253450000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>792.21643849999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>808.94141749999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>845.11283849999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>795.47928750000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>853.14891150000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>858.54930750000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>943.94398450000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>965.16386799999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1018.263069</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1037.807757</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1028.283745</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1109.0817505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1156.0013200000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1202.9082774999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1384.4413815</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1764.0183300000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1480.8309995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1466.6732165000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1592.2419534999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1563.3569910000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2108.8227874999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19939.169587</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2599.2946695000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2559.4468805000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3065.4460005000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2661.1726669999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1538,6 +1688,27 @@
                 <c:pt idx="92">
                   <c:v>930</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1548,88 +1719,175 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>59.6063641</c:v>
+                  <c:v>60.770437999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.556389600000003</c:v>
+                  <c:v>56.914583499999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.000923899999997</c:v>
+                  <c:v>68.243713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.692734000000002</c:v>
+                  <c:v>60.824694000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.174690399999903</c:v>
+                  <c:v>62.354278000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.900931</c:v>
+                  <c:v>60.1105655</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.827025399999997</c:v>
+                  <c:v>62.042524999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71.238712599999999</c:v>
+                  <c:v>59.911430500000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79.062775700000003</c:v>
+                  <c:v>60.878803499999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110.73606559999899</c:v>
+                  <c:v>62.781728999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131.57260779999999</c:v>
+                  <c:v>67.980350999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120.24139609999899</c:v>
+                  <c:v>67.015323499999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>167.20349009999899</c:v>
+                  <c:v>68.949190000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>181.0757389</c:v>
+                  <c:v>71.386758999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>131.06978520000001</c:v>
+                  <c:v>74.516753499999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>139.99563000000001</c:v>
+                  <c:v>78.654740500000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>149.89773460000001</c:v>
+                  <c:v>79.480313499999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>289.48943459999998</c:v>
+                  <c:v>81.074126000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>352.53763470000001</c:v>
+                  <c:v>87.502016499999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>650.22611640000002</c:v>
+                  <c:v>94.097368000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1069.3666106000001</c:v>
+                  <c:v>91.405528500000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1884.895755</c:v>
+                  <c:v>98.560011500000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2412.0904465999902</c:v>
+                  <c:v>101.324144</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2920.7911428000002</c:v>
+                  <c:v>103.09612199999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3404.7019576999901</c:v>
+                  <c:v>107.84603</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3818.2195761999901</c:v>
+                  <c:v>116.63978349999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4062.2892293999998</c:v>
+                  <c:v>113.3352885</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4689.1930494999997</c:v>
+                  <c:v>122.284918</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>128.57496900000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>124.58362049999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>127.490285</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>133.54908699999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>154.86413949999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>144.26746850000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>153.35127249999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>164.425691</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>160.51763299999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>165.26328899999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>168.285798</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>181.02734849999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>197.07881850000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>191.61052849999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>198.66808399999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>195.23586800000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>229.68971350000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>237.48060699999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>250.4874255</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>254.28477150000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>251.719041</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>286.46938899999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>291.92565450000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>319.355525</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>344.9359925</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>362.28286550000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>380.30222149999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>404.84243700000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>381.70320400000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2817,7 +3075,7 @@
   <dimension ref="A1:R203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G111"/>
+      <selection activeCell="H1" sqref="H1:N125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2877,10 +3135,10 @@
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>655.13187210000001</v>
+        <v>682.60620249999999</v>
       </c>
       <c r="E2">
-        <v>7.5239827000000004</v>
+        <v>17.284111500000002</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -2895,10 +3153,10 @@
         <v>10000</v>
       </c>
       <c r="K2">
-        <v>1142.8130216</v>
+        <v>668.98159699999997</v>
       </c>
       <c r="L2">
-        <v>59.6063641</v>
+        <v>60.770437999999999</v>
       </c>
       <c r="M2">
         <v>10</v>
@@ -2915,10 +3173,10 @@
         <v>20000</v>
       </c>
       <c r="D3">
-        <v>544.74700519999999</v>
+        <v>560.5261385</v>
       </c>
       <c r="E3">
-        <v>9.1032481000000001</v>
+        <v>7.9049785000000004</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -2933,10 +3191,10 @@
         <v>20000</v>
       </c>
       <c r="K3">
-        <v>1040.1924483</v>
+        <v>563.49967000000004</v>
       </c>
       <c r="L3">
-        <v>35.556389600000003</v>
+        <v>56.914583499999999</v>
       </c>
       <c r="M3">
         <v>20</v>
@@ -2958,10 +3216,10 @@
         <v>30000</v>
       </c>
       <c r="D4">
-        <v>543.13172510000004</v>
+        <v>559.29936250000003</v>
       </c>
       <c r="E4">
-        <v>10.873172800000001</v>
+        <v>10.4965175</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -2976,10 +3234,10 @@
         <v>30000</v>
       </c>
       <c r="K4">
-        <v>1050.9284261</v>
+        <v>544.68612050000002</v>
       </c>
       <c r="L4">
-        <v>39.000923899999997</v>
+        <v>68.243713</v>
       </c>
       <c r="M4">
         <v>30</v>
@@ -2996,10 +3254,10 @@
         <v>40000</v>
       </c>
       <c r="D5">
-        <v>538.54611039999998</v>
+        <v>562.92558150000002</v>
       </c>
       <c r="E5">
-        <v>12.413021499999999</v>
+        <v>11.065181000000001</v>
       </c>
       <c r="F5">
         <v>40</v>
@@ -3014,10 +3272,10 @@
         <v>40000</v>
       </c>
       <c r="K5">
-        <v>1099.5813180999901</v>
+        <v>550.73891049999997</v>
       </c>
       <c r="L5">
-        <v>51.692734000000002</v>
+        <v>60.824694000000001</v>
       </c>
       <c r="M5">
         <v>40</v>
@@ -3034,10 +3292,10 @@
         <v>50000</v>
       </c>
       <c r="D6">
-        <v>542.25183649999997</v>
+        <v>556.13270799999998</v>
       </c>
       <c r="E6">
-        <v>12.9303612</v>
+        <v>24.377447</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -3052,10 +3310,10 @@
         <v>50000</v>
       </c>
       <c r="K6">
-        <v>1132.4999487</v>
+        <v>552.95945449999999</v>
       </c>
       <c r="L6">
-        <v>59.174690399999903</v>
+        <v>62.354278000000001</v>
       </c>
       <c r="M6">
         <v>50</v>
@@ -3072,10 +3330,10 @@
         <v>60000</v>
       </c>
       <c r="D7">
-        <v>550.54440920000002</v>
+        <v>560.97705099999996</v>
       </c>
       <c r="E7">
-        <v>16.083818399999998</v>
+        <v>22.7372975</v>
       </c>
       <c r="F7">
         <v>60</v>
@@ -3090,10 +3348,10 @@
         <v>60000</v>
       </c>
       <c r="K7">
-        <v>1154.5298043</v>
+        <v>552.74243000000001</v>
       </c>
       <c r="L7">
-        <v>89.900931</v>
+        <v>60.1105655</v>
       </c>
       <c r="M7">
         <v>60</v>
@@ -3110,10 +3368,10 @@
         <v>70000</v>
       </c>
       <c r="D8">
-        <v>555.90140029999998</v>
+        <v>558.21174599999995</v>
       </c>
       <c r="E8">
-        <v>18.274213499999998</v>
+        <v>21.1427525</v>
       </c>
       <c r="F8">
         <v>70</v>
@@ -3128,10 +3386,10 @@
         <v>70000</v>
       </c>
       <c r="K8">
-        <v>1253.7108292</v>
+        <v>548.29943500000002</v>
       </c>
       <c r="L8">
-        <v>73.827025399999997</v>
+        <v>62.042524999999998</v>
       </c>
       <c r="M8">
         <v>70</v>
@@ -3148,10 +3406,10 @@
         <v>80000</v>
       </c>
       <c r="D9">
-        <v>557.12588879999998</v>
+        <v>553.81332999999995</v>
       </c>
       <c r="E9">
-        <v>19.250385099999999</v>
+        <v>22.876310499999999</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -3166,10 +3424,10 @@
         <v>80000</v>
       </c>
       <c r="K9">
-        <v>1351.9114307</v>
+        <v>545.61639449999996</v>
       </c>
       <c r="L9">
-        <v>71.238712599999999</v>
+        <v>59.911430500000002</v>
       </c>
       <c r="M9">
         <v>80</v>
@@ -3186,10 +3444,10 @@
         <v>90000</v>
       </c>
       <c r="D10">
-        <v>555.36265109999999</v>
+        <v>555.07471150000003</v>
       </c>
       <c r="E10">
-        <v>23.2073906</v>
+        <v>16.8962535</v>
       </c>
       <c r="F10">
         <v>90</v>
@@ -3204,10 +3462,10 @@
         <v>90000</v>
       </c>
       <c r="K10">
-        <v>1522.2896694999999</v>
+        <v>550.70034450000003</v>
       </c>
       <c r="L10">
-        <v>79.062775700000003</v>
+        <v>60.878803499999997</v>
       </c>
       <c r="M10">
         <v>90</v>
@@ -3224,10 +3482,10 @@
         <v>100000</v>
       </c>
       <c r="D11">
-        <v>559.14336809999998</v>
+        <v>550.87748350000004</v>
       </c>
       <c r="E11">
-        <v>25.089199899999901</v>
+        <v>17.442774499999999</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -3242,10 +3500,10 @@
         <v>100000</v>
       </c>
       <c r="K11">
-        <v>1470.4303249</v>
+        <v>555.50406899999996</v>
       </c>
       <c r="L11">
-        <v>110.73606559999899</v>
+        <v>62.781728999999999</v>
       </c>
       <c r="M11">
         <v>100</v>
@@ -3262,10 +3520,10 @@
         <v>110000</v>
       </c>
       <c r="D12">
-        <v>561.00485370000001</v>
+        <v>557.87154550000002</v>
       </c>
       <c r="E12">
-        <v>29.6368063</v>
+        <v>23.728866</v>
       </c>
       <c r="F12">
         <v>110</v>
@@ -3280,10 +3538,10 @@
         <v>110000</v>
       </c>
       <c r="K12">
-        <v>1520.51244209999</v>
+        <v>558.35838450000006</v>
       </c>
       <c r="L12">
-        <v>131.57260779999999</v>
+        <v>67.980350999999999</v>
       </c>
       <c r="M12">
         <v>110</v>
@@ -3300,10 +3558,10 @@
         <v>120000</v>
       </c>
       <c r="D13">
-        <v>568.04548729999999</v>
+        <v>567.08776350000005</v>
       </c>
       <c r="E13">
-        <v>34.768736500000003</v>
+        <v>24.518659499999998</v>
       </c>
       <c r="F13">
         <v>120</v>
@@ -3318,10 +3576,10 @@
         <v>120000</v>
       </c>
       <c r="K13">
-        <v>1614.9334408</v>
+        <v>577.79866549999997</v>
       </c>
       <c r="L13">
-        <v>120.24139609999899</v>
+        <v>67.015323499999994</v>
       </c>
       <c r="M13">
         <v>120</v>
@@ -3338,10 +3596,10 @@
         <v>130000</v>
       </c>
       <c r="D14">
-        <v>570.36099429999899</v>
+        <v>567.68824700000005</v>
       </c>
       <c r="E14">
-        <v>41.765261500000001</v>
+        <v>27.686927000000001</v>
       </c>
       <c r="F14">
         <v>130</v>
@@ -3356,10 +3614,10 @@
         <v>130000</v>
       </c>
       <c r="K14">
-        <v>1671.2443433999999</v>
+        <v>580.84463649999998</v>
       </c>
       <c r="L14">
-        <v>167.20349009999899</v>
+        <v>68.949190000000002</v>
       </c>
       <c r="M14">
         <v>130</v>
@@ -3376,10 +3634,10 @@
         <v>140000</v>
       </c>
       <c r="D15">
-        <v>573.42256769999995</v>
+        <v>564.06906700000002</v>
       </c>
       <c r="E15">
-        <v>35.337136299999997</v>
+        <v>37.122516500000003</v>
       </c>
       <c r="F15">
         <v>140</v>
@@ -3394,10 +3652,10 @@
         <v>140000</v>
       </c>
       <c r="K15">
-        <v>1703.0525699</v>
+        <v>580.86149950000004</v>
       </c>
       <c r="L15">
-        <v>181.0757389</v>
+        <v>71.386758999999998</v>
       </c>
       <c r="M15">
         <v>140</v>
@@ -3414,10 +3672,10 @@
         <v>150000</v>
       </c>
       <c r="D16">
-        <v>573.51187049999999</v>
+        <v>562.50868849999995</v>
       </c>
       <c r="E16">
-        <v>40.786304000000001</v>
+        <v>36.602536999999998</v>
       </c>
       <c r="F16">
         <v>150</v>
@@ -3432,10 +3690,10 @@
         <v>150000</v>
       </c>
       <c r="K16">
-        <v>1584.5921549</v>
+        <v>592.04281849999995</v>
       </c>
       <c r="L16">
-        <v>131.06978520000001</v>
+        <v>74.516753499999993</v>
       </c>
       <c r="M16">
         <v>150</v>
@@ -3452,10 +3710,10 @@
         <v>160000</v>
       </c>
       <c r="D17">
-        <v>570.48889210000004</v>
+        <v>568.13241449999998</v>
       </c>
       <c r="E17">
-        <v>50.681223099999997</v>
+        <v>46.946550000000002</v>
       </c>
       <c r="F17">
         <v>160</v>
@@ -3470,10 +3728,10 @@
         <v>160000</v>
       </c>
       <c r="K17">
-        <v>1793.0711342</v>
+        <v>612.17464600000005</v>
       </c>
       <c r="L17">
-        <v>139.99563000000001</v>
+        <v>78.654740500000003</v>
       </c>
       <c r="M17">
         <v>160</v>
@@ -3490,10 +3748,10 @@
         <v>170000</v>
       </c>
       <c r="D18">
-        <v>576.16153670000006</v>
+        <v>579.72050750000005</v>
       </c>
       <c r="E18">
-        <v>41.833477299999998</v>
+        <v>29.577828499999999</v>
       </c>
       <c r="F18">
         <v>170</v>
@@ -3508,10 +3766,10 @@
         <v>170000</v>
       </c>
       <c r="K18">
-        <v>2316.8298261999998</v>
+        <v>614.22714299999996</v>
       </c>
       <c r="L18">
-        <v>149.89773460000001</v>
+        <v>79.480313499999994</v>
       </c>
       <c r="M18">
         <v>170</v>
@@ -3528,10 +3786,10 @@
         <v>180000</v>
       </c>
       <c r="D19">
-        <v>580.248082799999</v>
+        <v>586.9920085</v>
       </c>
       <c r="E19">
-        <v>47.3901313</v>
+        <v>53.773004</v>
       </c>
       <c r="F19">
         <v>180</v>
@@ -3546,10 +3804,10 @@
         <v>180000</v>
       </c>
       <c r="K19">
-        <v>2582.5212991999902</v>
+        <v>620.47906699999999</v>
       </c>
       <c r="L19">
-        <v>289.48943459999998</v>
+        <v>81.074126000000007</v>
       </c>
       <c r="M19">
         <v>180</v>
@@ -3566,10 +3824,10 @@
         <v>190000</v>
       </c>
       <c r="D20">
-        <v>581.62736259999997</v>
+        <v>583.45890450000002</v>
       </c>
       <c r="E20">
-        <v>56.250311500000002</v>
+        <v>31.207713500000001</v>
       </c>
       <c r="F20">
         <v>190</v>
@@ -3584,10 +3842,10 @@
         <v>190000</v>
       </c>
       <c r="K20">
-        <v>2798.0397095999901</v>
+        <v>627.4503995</v>
       </c>
       <c r="L20">
-        <v>352.53763470000001</v>
+        <v>87.502016499999996</v>
       </c>
       <c r="M20">
         <v>190</v>
@@ -3604,10 +3862,10 @@
         <v>200000</v>
       </c>
       <c r="D21">
-        <v>592.7555979</v>
+        <v>577.53867600000001</v>
       </c>
       <c r="E21">
-        <v>54.438771199999998</v>
+        <v>32.380526500000002</v>
       </c>
       <c r="F21">
         <v>200</v>
@@ -3622,10 +3880,10 @@
         <v>200000</v>
       </c>
       <c r="K21">
-        <v>2909.4643593999999</v>
+        <v>639.69000649999998</v>
       </c>
       <c r="L21">
-        <v>650.22611640000002</v>
+        <v>94.097368000000003</v>
       </c>
       <c r="M21">
         <v>200</v>
@@ -3642,10 +3900,10 @@
         <v>210000</v>
       </c>
       <c r="D22">
-        <v>607.46647110000004</v>
+        <v>579.32473049999999</v>
       </c>
       <c r="E22">
-        <v>63.316636199999998</v>
+        <v>55.546300500000001</v>
       </c>
       <c r="F22">
         <v>210</v>
@@ -3660,10 +3918,10 @@
         <v>210000</v>
       </c>
       <c r="K22">
-        <v>3110.2196936</v>
+        <v>634.71090249999997</v>
       </c>
       <c r="L22">
-        <v>1069.3666106000001</v>
+        <v>91.405528500000003</v>
       </c>
       <c r="M22">
         <v>210</v>
@@ -3680,10 +3938,10 @@
         <v>220000</v>
       </c>
       <c r="D23">
-        <v>595.79136310000001</v>
+        <v>573.104333</v>
       </c>
       <c r="E23">
-        <v>71.196246200000004</v>
+        <v>39.703644500000003</v>
       </c>
       <c r="F23">
         <v>220</v>
@@ -3698,10 +3956,10 @@
         <v>220000</v>
       </c>
       <c r="K23">
-        <v>3376.6070823999999</v>
+        <v>639.46594300000004</v>
       </c>
       <c r="L23">
-        <v>1884.895755</v>
+        <v>98.560011500000002</v>
       </c>
       <c r="M23">
         <v>220</v>
@@ -3718,10 +3976,10 @@
         <v>230000</v>
       </c>
       <c r="D24">
-        <v>601.63586759999998</v>
+        <v>575.18102499999998</v>
       </c>
       <c r="E24">
-        <v>66.537898499999997</v>
+        <v>55.033506500000001</v>
       </c>
       <c r="F24">
         <v>230</v>
@@ -3736,10 +3994,10 @@
         <v>230000</v>
       </c>
       <c r="K24">
-        <v>3826.7553046999901</v>
+        <v>655.79588000000001</v>
       </c>
       <c r="L24">
-        <v>2412.0904465999902</v>
+        <v>101.324144</v>
       </c>
       <c r="M24">
         <v>230</v>
@@ -3756,10 +4014,10 @@
         <v>240000</v>
       </c>
       <c r="D25">
-        <v>607.97076040000002</v>
+        <v>571.78693499999997</v>
       </c>
       <c r="E25">
-        <v>81.926006299999997</v>
+        <v>51.453918999999999</v>
       </c>
       <c r="F25">
         <v>240</v>
@@ -3774,10 +4032,10 @@
         <v>240000</v>
       </c>
       <c r="K25">
-        <v>4208.0516751999903</v>
+        <v>668.285798</v>
       </c>
       <c r="L25">
-        <v>2920.7911428000002</v>
+        <v>103.09612199999999</v>
       </c>
       <c r="M25">
         <v>240</v>
@@ -3794,10 +4052,10 @@
         <v>250000</v>
       </c>
       <c r="D26">
-        <v>605.5439844</v>
+        <v>589.64836149999996</v>
       </c>
       <c r="E26">
-        <v>86.8605321</v>
+        <v>50.742429999999999</v>
       </c>
       <c r="F26">
         <v>250</v>
@@ -3812,10 +4070,10 @@
         <v>250000</v>
       </c>
       <c r="K26">
-        <v>5319.2960481</v>
+        <v>671.53940899999998</v>
       </c>
       <c r="L26">
-        <v>3404.7019576999901</v>
+        <v>107.84603</v>
       </c>
       <c r="M26">
         <v>250</v>
@@ -3832,10 +4090,10 @@
         <v>260000</v>
       </c>
       <c r="D27">
-        <v>606.447628299999</v>
+        <v>586.39592300000004</v>
       </c>
       <c r="E27">
-        <v>71.016379499999999</v>
+        <v>44.774397</v>
       </c>
       <c r="F27">
         <v>260</v>
@@ -3850,10 +4108,10 @@
         <v>260000</v>
       </c>
       <c r="K27">
-        <v>5473.5671825999998</v>
+        <v>690.46777599999996</v>
       </c>
       <c r="L27">
-        <v>3818.2195761999901</v>
+        <v>116.63978349999999</v>
       </c>
       <c r="M27">
         <v>260</v>
@@ -3870,10 +4128,10 @@
         <v>270000</v>
       </c>
       <c r="D28">
-        <v>606.26236540000002</v>
+        <v>582.09766100000002</v>
       </c>
       <c r="E28">
-        <v>78.016863400000005</v>
+        <v>49.637803499999997</v>
       </c>
       <c r="F28">
         <v>270</v>
@@ -3888,10 +4146,10 @@
         <v>270000</v>
       </c>
       <c r="K28">
-        <v>6864.0354863999901</v>
+        <v>705.92272149999997</v>
       </c>
       <c r="L28">
-        <v>4062.2892293999998</v>
+        <v>113.3352885</v>
       </c>
       <c r="M28">
         <v>270</v>
@@ -3908,10 +4166,10 @@
         <v>280000</v>
       </c>
       <c r="D29">
-        <v>616.53766410000003</v>
+        <v>588.99699450000003</v>
       </c>
       <c r="E29">
-        <v>89.900197899999995</v>
+        <v>45.439255500000002</v>
       </c>
       <c r="F29">
         <v>280</v>
@@ -3926,10 +4184,10 @@
         <v>280000</v>
       </c>
       <c r="K29">
-        <v>7389.1427233000004</v>
+        <v>706.01818300000002</v>
       </c>
       <c r="L29">
-        <v>4689.1930494999997</v>
+        <v>122.284918</v>
       </c>
       <c r="M29">
         <v>280</v>
@@ -3946,14 +4204,32 @@
         <v>290000</v>
       </c>
       <c r="D30">
-        <v>614.99854849999997</v>
+        <v>589.01752299999998</v>
       </c>
       <c r="E30">
-        <v>84.969367300000002</v>
+        <v>49.350538999999998</v>
       </c>
       <c r="F30">
         <v>290</v>
       </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>290</v>
+      </c>
+      <c r="J30">
+        <v>290000</v>
+      </c>
+      <c r="K30">
+        <v>717.04010600000004</v>
+      </c>
+      <c r="L30">
+        <v>128.57496900000001</v>
+      </c>
+      <c r="M30">
+        <v>290</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -3966,14 +4242,32 @@
         <v>300000</v>
       </c>
       <c r="D31">
-        <v>624.22749439999996</v>
+        <v>593.7488085</v>
       </c>
       <c r="E31">
-        <v>98.818417799999906</v>
+        <v>49.359777000000001</v>
       </c>
       <c r="F31">
         <v>300</v>
       </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>300</v>
+      </c>
+      <c r="J31">
+        <v>300000</v>
+      </c>
+      <c r="K31">
+        <v>765.23454800000002</v>
+      </c>
+      <c r="L31">
+        <v>124.58362049999999</v>
+      </c>
+      <c r="M31">
+        <v>300</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -3986,16 +4280,34 @@
         <v>310000</v>
       </c>
       <c r="D32">
-        <v>634.43340420000004</v>
+        <v>591.15169749999995</v>
       </c>
       <c r="E32">
-        <v>91.980262299999893</v>
+        <v>54.645209000000001</v>
       </c>
       <c r="F32">
         <v>310</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>310</v>
+      </c>
+      <c r="J32">
+        <v>310000</v>
+      </c>
+      <c r="K32">
+        <v>769.37253450000003</v>
+      </c>
+      <c r="L32">
+        <v>127.490285</v>
+      </c>
+      <c r="M32">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -4006,16 +4318,34 @@
         <v>320000</v>
       </c>
       <c r="D33">
-        <v>622.35460069999999</v>
+        <v>592.85138199999994</v>
       </c>
       <c r="E33">
-        <v>102.117164</v>
+        <v>53.083657500000001</v>
       </c>
       <c r="F33">
         <v>320</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>320</v>
+      </c>
+      <c r="J33">
+        <v>320000</v>
+      </c>
+      <c r="K33">
+        <v>792.21643849999998</v>
+      </c>
+      <c r="L33">
+        <v>133.54908699999999</v>
+      </c>
+      <c r="M33">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -4026,16 +4356,34 @@
         <v>330000</v>
       </c>
       <c r="D34">
-        <v>629.55463020000002</v>
+        <v>599.99604099999999</v>
       </c>
       <c r="E34">
-        <v>106.4007038</v>
+        <v>58.190190000000001</v>
       </c>
       <c r="F34">
         <v>330</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>330</v>
+      </c>
+      <c r="J34">
+        <v>330000</v>
+      </c>
+      <c r="K34">
+        <v>808.94141749999994</v>
+      </c>
+      <c r="L34">
+        <v>154.86413949999999</v>
+      </c>
+      <c r="M34">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -4046,16 +4394,34 @@
         <v>340000</v>
       </c>
       <c r="D35">
-        <v>642.68969860000004</v>
+        <v>601.81567600000005</v>
       </c>
       <c r="E35">
-        <v>98.852320599999999</v>
+        <v>63.730772000000002</v>
       </c>
       <c r="F35">
         <v>340</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>340</v>
+      </c>
+      <c r="J35">
+        <v>340000</v>
+      </c>
+      <c r="K35">
+        <v>845.11283849999995</v>
+      </c>
+      <c r="L35">
+        <v>144.26746850000001</v>
+      </c>
+      <c r="M35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -4066,16 +4432,34 @@
         <v>350000</v>
       </c>
       <c r="D36">
-        <v>645.74857410000004</v>
+        <v>601.85057600000005</v>
       </c>
       <c r="E36">
-        <v>118.6012466</v>
+        <v>75.450693000000001</v>
       </c>
       <c r="F36">
         <v>350</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>350</v>
+      </c>
+      <c r="J36">
+        <v>350000</v>
+      </c>
+      <c r="K36">
+        <v>795.47928750000005</v>
+      </c>
+      <c r="L36">
+        <v>153.35127249999999</v>
+      </c>
+      <c r="M36">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -4086,16 +4470,34 @@
         <v>360000</v>
       </c>
       <c r="D37">
-        <v>654.46064960000001</v>
+        <v>601.48266000000001</v>
       </c>
       <c r="E37">
-        <v>115.9266808</v>
+        <v>81.369602</v>
       </c>
       <c r="F37">
         <v>360</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>360</v>
+      </c>
+      <c r="J37">
+        <v>360000</v>
+      </c>
+      <c r="K37">
+        <v>853.14891150000005</v>
+      </c>
+      <c r="L37">
+        <v>164.425691</v>
+      </c>
+      <c r="M37">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -4106,16 +4508,34 @@
         <v>370000</v>
       </c>
       <c r="D38">
-        <v>647.75127199999997</v>
+        <v>604.2192245</v>
       </c>
       <c r="E38">
-        <v>127.3744997</v>
+        <v>65.650120999999999</v>
       </c>
       <c r="F38">
         <v>370</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>370</v>
+      </c>
+      <c r="J38">
+        <v>370000</v>
+      </c>
+      <c r="K38">
+        <v>858.54930750000005</v>
+      </c>
+      <c r="L38">
+        <v>160.51763299999999</v>
+      </c>
+      <c r="M38">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -4126,16 +4546,34 @@
         <v>380000</v>
       </c>
       <c r="D39">
-        <v>657.14451179999901</v>
+        <v>611.72241350000002</v>
       </c>
       <c r="E39">
-        <v>126.6731872</v>
+        <v>77.647627999999997</v>
       </c>
       <c r="F39">
         <v>380</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>380</v>
+      </c>
+      <c r="J39">
+        <v>380000</v>
+      </c>
+      <c r="K39">
+        <v>943.94398450000006</v>
+      </c>
+      <c r="L39">
+        <v>165.26328899999999</v>
+      </c>
+      <c r="M39">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -4146,16 +4584,34 @@
         <v>390000</v>
       </c>
       <c r="D40">
-        <v>660.90593149999995</v>
+        <v>611.34188749999998</v>
       </c>
       <c r="E40">
-        <v>121.5853362</v>
+        <v>72.858567500000007</v>
       </c>
       <c r="F40">
         <v>390</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>390</v>
+      </c>
+      <c r="J40">
+        <v>390000</v>
+      </c>
+      <c r="K40">
+        <v>965.16386799999998</v>
+      </c>
+      <c r="L40">
+        <v>168.285798</v>
+      </c>
+      <c r="M40">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -4166,16 +4622,34 @@
         <v>400000</v>
       </c>
       <c r="D41">
-        <v>668.32366019999995</v>
+        <v>615.26240900000005</v>
       </c>
       <c r="E41">
-        <v>149.94630100000001</v>
+        <v>71.597184499999997</v>
       </c>
       <c r="F41">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>400</v>
+      </c>
+      <c r="J41">
+        <v>400000</v>
+      </c>
+      <c r="K41">
+        <v>1018.263069</v>
+      </c>
+      <c r="L41">
+        <v>181.02734849999999</v>
+      </c>
+      <c r="M41">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -4186,16 +4660,34 @@
         <v>410000</v>
       </c>
       <c r="D42">
-        <v>663.52934960000005</v>
+        <v>617.12676850000003</v>
       </c>
       <c r="E42">
-        <v>147.0364692</v>
+        <v>76.793606999999994</v>
       </c>
       <c r="F42">
         <v>410</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>410</v>
+      </c>
+      <c r="J42">
+        <v>410000</v>
+      </c>
+      <c r="K42">
+        <v>1037.807757</v>
+      </c>
+      <c r="L42">
+        <v>197.07881850000001</v>
+      </c>
+      <c r="M42">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -4206,16 +4698,34 @@
         <v>420000</v>
       </c>
       <c r="D43">
-        <v>682.28729369999996</v>
+        <v>626.538456</v>
       </c>
       <c r="E43">
-        <v>140.8231395</v>
+        <v>77.601290000000006</v>
       </c>
       <c r="F43">
         <v>420</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>420</v>
+      </c>
+      <c r="J43">
+        <v>420000</v>
+      </c>
+      <c r="K43">
+        <v>1028.283745</v>
+      </c>
+      <c r="L43">
+        <v>191.61052849999999</v>
+      </c>
+      <c r="M43">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -4226,16 +4736,34 @@
         <v>430000</v>
       </c>
       <c r="D44">
-        <v>670.97268159999999</v>
+        <v>643.03101400000003</v>
       </c>
       <c r="E44">
-        <v>152.0114964</v>
+        <v>79.868025000000003</v>
       </c>
       <c r="F44">
         <v>430</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>430</v>
+      </c>
+      <c r="J44">
+        <v>430000</v>
+      </c>
+      <c r="K44">
+        <v>1109.0817505</v>
+      </c>
+      <c r="L44">
+        <v>198.66808399999999</v>
+      </c>
+      <c r="M44">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -4246,16 +4774,34 @@
         <v>440000</v>
       </c>
       <c r="D45">
-        <v>670.33219439999903</v>
+        <v>632.6279055</v>
       </c>
       <c r="E45">
-        <v>161.18208079999999</v>
+        <v>79.863039499999999</v>
       </c>
       <c r="F45">
         <v>440</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>440</v>
+      </c>
+      <c r="J45">
+        <v>440000</v>
+      </c>
+      <c r="K45">
+        <v>1156.0013200000001</v>
+      </c>
+      <c r="L45">
+        <v>195.23586800000001</v>
+      </c>
+      <c r="M45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -4266,16 +4812,34 @@
         <v>450000</v>
       </c>
       <c r="D46">
-        <v>693.96721149999996</v>
+        <v>620.31028649999996</v>
       </c>
       <c r="E46">
-        <v>167.48175090000001</v>
+        <v>87.954835500000002</v>
       </c>
       <c r="F46">
         <v>450</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>450</v>
+      </c>
+      <c r="J46">
+        <v>450000</v>
+      </c>
+      <c r="K46">
+        <v>1202.9082774999999</v>
+      </c>
+      <c r="L46">
+        <v>229.68971350000001</v>
+      </c>
+      <c r="M46">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -4286,16 +4850,34 @@
         <v>460000</v>
       </c>
       <c r="D47">
-        <v>691.30091640000001</v>
+        <v>627.52019900000005</v>
       </c>
       <c r="E47">
-        <v>187.4819852</v>
+        <v>85.259329500000007</v>
       </c>
       <c r="F47">
         <v>460</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>460</v>
+      </c>
+      <c r="J47">
+        <v>460000</v>
+      </c>
+      <c r="K47">
+        <v>1384.4413815</v>
+      </c>
+      <c r="L47">
+        <v>237.48060699999999</v>
+      </c>
+      <c r="M47">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -4306,16 +4888,34 @@
         <v>470000</v>
       </c>
       <c r="D48">
-        <v>714.89584260000004</v>
+        <v>629.54043549999994</v>
       </c>
       <c r="E48">
-        <v>175.20460439999999</v>
+        <v>91.340421000000006</v>
       </c>
       <c r="F48">
         <v>470</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>470</v>
+      </c>
+      <c r="J48">
+        <v>470000</v>
+      </c>
+      <c r="K48">
+        <v>1764.0183300000001</v>
+      </c>
+      <c r="L48">
+        <v>250.4874255</v>
+      </c>
+      <c r="M48">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4326,16 +4926,34 @@
         <v>480000</v>
       </c>
       <c r="D49">
-        <v>710.39536629999998</v>
+        <v>644.09458199999995</v>
       </c>
       <c r="E49">
-        <v>190.32283889999999</v>
+        <v>96.420851999999996</v>
       </c>
       <c r="F49">
         <v>480</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>480</v>
+      </c>
+      <c r="J49">
+        <v>480000</v>
+      </c>
+      <c r="K49">
+        <v>1480.8309995</v>
+      </c>
+      <c r="L49">
+        <v>254.28477150000001</v>
+      </c>
+      <c r="M49">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4346,16 +4964,34 @@
         <v>490000</v>
       </c>
       <c r="D50">
-        <v>715.72599149999996</v>
+        <v>641.22472349999998</v>
       </c>
       <c r="E50">
-        <v>194.44754030000001</v>
+        <v>92.685241000000005</v>
       </c>
       <c r="F50">
         <v>490</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>490</v>
+      </c>
+      <c r="J50">
+        <v>490000</v>
+      </c>
+      <c r="K50">
+        <v>1466.6732165000001</v>
+      </c>
+      <c r="L50">
+        <v>251.719041</v>
+      </c>
+      <c r="M50">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -4366,16 +5002,34 @@
         <v>500000</v>
       </c>
       <c r="D51">
-        <v>705.21486909999999</v>
+        <v>636.10484650000001</v>
       </c>
       <c r="E51">
-        <v>187.9533691</v>
+        <v>100.815896</v>
       </c>
       <c r="F51">
         <v>500</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>500</v>
+      </c>
+      <c r="J51">
+        <v>500000</v>
+      </c>
+      <c r="K51">
+        <v>1592.2419534999999</v>
+      </c>
+      <c r="L51">
+        <v>286.46938899999998</v>
+      </c>
+      <c r="M51">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -4386,16 +5040,34 @@
         <v>510000</v>
       </c>
       <c r="D52">
-        <v>708.96174199999996</v>
+        <v>637.64410899999996</v>
       </c>
       <c r="E52">
-        <v>192.05786359999999</v>
+        <v>99.854241500000001</v>
       </c>
       <c r="F52">
         <v>510</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>510</v>
+      </c>
+      <c r="J52">
+        <v>510000</v>
+      </c>
+      <c r="K52">
+        <v>1563.3569910000001</v>
+      </c>
+      <c r="L52">
+        <v>291.92565450000001</v>
+      </c>
+      <c r="M52">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4406,16 +5078,34 @@
         <v>520000</v>
       </c>
       <c r="D53">
-        <v>683.11864509999998</v>
+        <v>669.06136849999996</v>
       </c>
       <c r="E53">
-        <v>202.56485090000001</v>
+        <v>98.408681000000001</v>
       </c>
       <c r="F53">
         <v>520</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>520</v>
+      </c>
+      <c r="J53">
+        <v>520000</v>
+      </c>
+      <c r="K53">
+        <v>2108.8227874999998</v>
+      </c>
+      <c r="L53">
+        <v>319.355525</v>
+      </c>
+      <c r="M53">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -4426,16 +5116,34 @@
         <v>530000</v>
       </c>
       <c r="D54">
-        <v>713.52932020000003</v>
+        <v>649.62709900000004</v>
       </c>
       <c r="E54">
-        <v>215.36954319999899</v>
+        <v>99.8432435</v>
       </c>
       <c r="F54">
         <v>530</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>530</v>
+      </c>
+      <c r="J54">
+        <v>530000</v>
+      </c>
+      <c r="K54">
+        <v>19939.169587</v>
+      </c>
+      <c r="L54">
+        <v>344.9359925</v>
+      </c>
+      <c r="M54">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -4446,16 +5154,34 @@
         <v>540000</v>
       </c>
       <c r="D55">
-        <v>695.31244219999996</v>
+        <v>650.16819450000003</v>
       </c>
       <c r="E55">
-        <v>226.8920889</v>
+        <v>100.2463525</v>
       </c>
       <c r="F55">
         <v>540</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>540</v>
+      </c>
+      <c r="J55">
+        <v>540000</v>
+      </c>
+      <c r="K55">
+        <v>2599.2946695000001</v>
+      </c>
+      <c r="L55">
+        <v>362.28286550000001</v>
+      </c>
+      <c r="M55">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -4466,16 +5192,34 @@
         <v>550000</v>
       </c>
       <c r="D56">
-        <v>702.66095749999999</v>
+        <v>653.35772399999996</v>
       </c>
       <c r="E56">
-        <v>223.17826840000001</v>
+        <v>105.01854950000001</v>
       </c>
       <c r="F56">
         <v>550</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>550</v>
+      </c>
+      <c r="J56">
+        <v>550000</v>
+      </c>
+      <c r="K56">
+        <v>2559.4468805000001</v>
+      </c>
+      <c r="L56">
+        <v>380.30222149999997</v>
+      </c>
+      <c r="M56">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4486,16 +5230,34 @@
         <v>560000</v>
       </c>
       <c r="D57">
-        <v>708.6841263</v>
+        <v>650.92895350000003</v>
       </c>
       <c r="E57">
-        <v>207.92685700000001</v>
+        <v>119.1211965</v>
       </c>
       <c r="F57">
         <v>560</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>560</v>
+      </c>
+      <c r="J57">
+        <v>560000</v>
+      </c>
+      <c r="K57">
+        <v>3065.4460005000001</v>
+      </c>
+      <c r="L57">
+        <v>404.84243700000002</v>
+      </c>
+      <c r="M57">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4506,16 +5268,34 @@
         <v>570000</v>
       </c>
       <c r="D58">
-        <v>731.85060520000002</v>
+        <v>654.60283000000004</v>
       </c>
       <c r="E58">
-        <v>210.47276189999999</v>
+        <v>119.61727399999999</v>
       </c>
       <c r="F58">
         <v>570</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>570</v>
+      </c>
+      <c r="J58">
+        <v>570000</v>
+      </c>
+      <c r="K58">
+        <v>2661.1726669999998</v>
+      </c>
+      <c r="L58">
+        <v>381.70320400000003</v>
+      </c>
+      <c r="M58">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4526,16 +5306,16 @@
         <v>580000</v>
       </c>
       <c r="D59">
-        <v>757.37587789999998</v>
+        <v>659.43632249999996</v>
       </c>
       <c r="E59">
-        <v>231.9141285</v>
+        <v>117.230442</v>
       </c>
       <c r="F59">
         <v>580</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -4546,16 +5326,16 @@
         <v>590000</v>
       </c>
       <c r="D60">
-        <v>750.27028399999995</v>
+        <v>668.486986</v>
       </c>
       <c r="E60">
-        <v>282.61470789999998</v>
+        <v>121.12794150000001</v>
       </c>
       <c r="F60">
         <v>590</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4566,16 +5346,16 @@
         <v>600000</v>
       </c>
       <c r="D61">
-        <v>750.91971550000005</v>
+        <v>659.61639400000001</v>
       </c>
       <c r="E61">
-        <v>241.6300023</v>
+        <v>128.212919</v>
       </c>
       <c r="F61">
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4586,16 +5366,16 @@
         <v>610000</v>
       </c>
       <c r="D62">
-        <v>750.38029180000001</v>
+        <v>661.56551049999996</v>
       </c>
       <c r="E62">
-        <v>244.0909743</v>
+        <v>121.5973315</v>
       </c>
       <c r="F62">
         <v>610</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -4606,16 +5386,16 @@
         <v>620000</v>
       </c>
       <c r="D63">
-        <v>763.387579799999</v>
+        <v>657.07969800000001</v>
       </c>
       <c r="E63">
-        <v>275.18920750000001</v>
+        <v>133.62621899999999</v>
       </c>
       <c r="F63">
         <v>620</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -4626,10 +5406,10 @@
         <v>630000</v>
       </c>
       <c r="D64">
-        <v>753.46990249999999</v>
+        <v>695.16988049999998</v>
       </c>
       <c r="E64">
-        <v>259.28944960000001</v>
+        <v>134.3145395</v>
       </c>
       <c r="F64">
         <v>630</v>
@@ -4646,10 +5426,10 @@
         <v>640000</v>
       </c>
       <c r="D65">
-        <v>785.36253399999998</v>
+        <v>676.25779</v>
       </c>
       <c r="E65">
-        <v>314.79900300000003</v>
+        <v>130.31204600000001</v>
       </c>
       <c r="F65">
         <v>640</v>
@@ -4666,10 +5446,10 @@
         <v>650000</v>
       </c>
       <c r="D66">
-        <v>781.08213209999997</v>
+        <v>692.78568800000005</v>
       </c>
       <c r="E66">
-        <v>328.8233156</v>
+        <v>138.212626</v>
       </c>
       <c r="F66">
         <v>650</v>
@@ -4686,10 +5466,10 @@
         <v>660000</v>
       </c>
       <c r="D67">
-        <v>821.84259839999902</v>
+        <v>686.08167749999996</v>
       </c>
       <c r="E67">
-        <v>304.07765979999999</v>
+        <v>138.073466</v>
       </c>
       <c r="F67">
         <v>660</v>
@@ -4706,10 +5486,10 @@
         <v>670000</v>
       </c>
       <c r="D68">
-        <v>786.65482810000003</v>
+        <v>692.44372750000002</v>
       </c>
       <c r="E68">
-        <v>330.688320199999</v>
+        <v>144.829973</v>
       </c>
       <c r="F68">
         <v>670</v>
@@ -4726,13 +5506,13 @@
         <v>680000</v>
       </c>
       <c r="D69">
-        <v>787.32684200000006</v>
+        <v>679.10946550000006</v>
       </c>
       <c r="E69">
-        <v>343.8158517</v>
+        <v>139.97477850000001</v>
       </c>
       <c r="F69">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -4746,10 +5526,10 @@
         <v>690000</v>
       </c>
       <c r="D70">
-        <v>796.39648030000001</v>
+        <v>682.18901649999998</v>
       </c>
       <c r="E70">
-        <v>342.31145980000002</v>
+        <v>151.7320915</v>
       </c>
       <c r="F70">
         <v>690</v>
@@ -4766,13 +5546,13 @@
         <v>700000</v>
       </c>
       <c r="D71">
-        <v>803.12803010000005</v>
+        <v>680.43404899999996</v>
       </c>
       <c r="E71">
-        <v>329.05409479999997</v>
+        <v>153.49219199999999</v>
       </c>
       <c r="F71">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -4786,10 +5566,10 @@
         <v>710000</v>
       </c>
       <c r="D72">
-        <v>810.58496950000006</v>
+        <v>680.44328800000005</v>
       </c>
       <c r="E72">
-        <v>348.10971480000001</v>
+        <v>150.0111445</v>
       </c>
       <c r="F72">
         <v>710</v>
@@ -4806,10 +5586,10 @@
         <v>720000</v>
       </c>
       <c r="D73">
-        <v>816.94446789999995</v>
+        <v>691.12222250000002</v>
       </c>
       <c r="E73">
-        <v>331.92923239999999</v>
+        <v>154.55282650000001</v>
       </c>
       <c r="F73">
         <v>720</v>
@@ -4826,10 +5606,10 @@
         <v>730000</v>
       </c>
       <c r="D74">
-        <v>790.37260800000001</v>
+        <v>690.71398150000005</v>
       </c>
       <c r="E74">
-        <v>366.1037025</v>
+        <v>164.8902415</v>
       </c>
       <c r="F74">
         <v>730</v>
@@ -4846,10 +5626,10 @@
         <v>740000</v>
       </c>
       <c r="D75">
-        <v>818.59197900000004</v>
+        <v>708.60664299999996</v>
       </c>
       <c r="E75">
-        <v>339.5864507</v>
+        <v>161.68516750000001</v>
       </c>
       <c r="F75">
         <v>740</v>
@@ -4866,10 +5646,10 @@
         <v>750000</v>
       </c>
       <c r="D76">
-        <v>827.83638079999901</v>
+        <v>715.80951700000003</v>
       </c>
       <c r="E76">
-        <v>347.22847710000002</v>
+        <v>164.716328</v>
       </c>
       <c r="F76">
         <v>750</v>
@@ -4886,13 +5666,13 @@
         <v>760000</v>
       </c>
       <c r="D77">
-        <v>836.47276209999995</v>
+        <v>697.485006</v>
       </c>
       <c r="E77">
-        <v>366.31524309999998</v>
+        <v>169.8489625</v>
       </c>
       <c r="F77">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -4906,10 +5686,10 @@
         <v>770000</v>
       </c>
       <c r="D78">
-        <v>836.76944070000002</v>
+        <v>715.46095749999995</v>
       </c>
       <c r="E78">
-        <v>399.90010999999998</v>
+        <v>177.4678495</v>
       </c>
       <c r="F78">
         <v>770</v>
@@ -4926,10 +5706,10 @@
         <v>780000</v>
       </c>
       <c r="D79">
-        <v>805.19876829999998</v>
+        <v>702.38404600000001</v>
       </c>
       <c r="E79">
-        <v>403.88400899999999</v>
+        <v>179.24774500000001</v>
       </c>
       <c r="F79">
         <v>780</v>
@@ -4946,10 +5726,10 @@
         <v>790000</v>
       </c>
       <c r="D80">
-        <v>839.63167410000005</v>
+        <v>714.04648399999996</v>
       </c>
       <c r="E80">
-        <v>388.8741402</v>
+        <v>186.20485400000001</v>
       </c>
       <c r="F80">
         <v>790</v>
@@ -4966,13 +5746,13 @@
         <v>800000</v>
       </c>
       <c r="D81">
-        <v>799.020573299999</v>
+        <v>722.31776549999995</v>
       </c>
       <c r="E81">
-        <v>375.58410429999998</v>
+        <v>204.76530600000001</v>
       </c>
       <c r="F81">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -4986,10 +5766,10 @@
         <v>810000</v>
       </c>
       <c r="D82">
-        <v>829.83825790000003</v>
+        <v>728.11525749999998</v>
       </c>
       <c r="E82">
-        <v>391.17246130000001</v>
+        <v>185.98416349999999</v>
       </c>
       <c r="F82">
         <v>810</v>
@@ -5006,10 +5786,10 @@
         <v>820000</v>
       </c>
       <c r="D83">
-        <v>815.25422689999903</v>
+        <v>723.60348950000002</v>
       </c>
       <c r="E83">
-        <v>401.04978369999998</v>
+        <v>180.51836650000001</v>
       </c>
       <c r="F83">
         <v>820</v>
@@ -5026,13 +5806,13 @@
         <v>830000</v>
       </c>
       <c r="D84">
-        <v>831.99768310000002</v>
+        <v>725.84998900000005</v>
       </c>
       <c r="E84">
-        <v>373.652584399999</v>
+        <v>195.8545355</v>
       </c>
       <c r="F84">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -5046,10 +5826,10 @@
         <v>840000</v>
       </c>
       <c r="D85">
-        <v>814.63423979999902</v>
+        <v>734.49402450000002</v>
       </c>
       <c r="E85">
-        <v>382.31195839999998</v>
+        <v>195.56052450000001</v>
       </c>
       <c r="F85">
         <v>840</v>
@@ -5066,10 +5846,10 @@
         <v>850000</v>
       </c>
       <c r="D86">
-        <v>849.64674829999899</v>
+        <v>733.002566</v>
       </c>
       <c r="E86">
-        <v>397.33678420000001</v>
+        <v>195.1590295</v>
       </c>
       <c r="F86">
         <v>850</v>
@@ -5086,10 +5866,10 @@
         <v>860000</v>
       </c>
       <c r="D87">
-        <v>829.44764269999996</v>
+        <v>720.08094449999999</v>
       </c>
       <c r="E87">
-        <v>419.29918620000001</v>
+        <v>204.48522600000001</v>
       </c>
       <c r="F87">
         <v>860</v>
@@ -5106,10 +5886,10 @@
         <v>870000</v>
       </c>
       <c r="D88">
-        <v>848.8098248</v>
+        <v>729.30786699999999</v>
       </c>
       <c r="E88">
-        <v>387.960114199999</v>
+        <v>230.80475150000001</v>
       </c>
       <c r="F88">
         <v>869</v>
@@ -5126,13 +5906,13 @@
         <v>880000</v>
       </c>
       <c r="D89">
-        <v>834.71002290000001</v>
+        <v>1611.5438079999999</v>
       </c>
       <c r="E89">
-        <v>397.01503050000002</v>
+        <v>341.61551450000002</v>
       </c>
       <c r="F89">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5146,13 +5926,13 @@
         <v>890000</v>
       </c>
       <c r="D90">
-        <v>2664.8563091000001</v>
+        <v>822.111445</v>
       </c>
       <c r="E90">
-        <v>423.37555550000002</v>
+        <v>328.19165650000002</v>
       </c>
       <c r="F90">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -5166,13 +5946,13 @@
         <v>900000</v>
       </c>
       <c r="D91">
-        <v>4212.2109246999999</v>
+        <v>3221.4653564999999</v>
       </c>
       <c r="E91">
-        <v>440.87648630000001</v>
+        <v>382.36967499999997</v>
       </c>
       <c r="F91">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -5186,10 +5966,10 @@
         <v>910000</v>
       </c>
       <c r="D92">
-        <v>7014.4400613999996</v>
+        <v>1489.3814795000001</v>
       </c>
       <c r="E92">
-        <v>1335.1917882999901</v>
+        <v>372.56001149999997</v>
       </c>
       <c r="F92">
         <v>910</v>
@@ -5206,13 +5986,13 @@
         <v>920000</v>
       </c>
       <c r="D93">
-        <v>14707.057262099999</v>
+        <v>1290.999047</v>
       </c>
       <c r="E93">
-        <v>6809.5678276999997</v>
+        <v>436.27348050000001</v>
       </c>
       <c r="F93">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5226,13 +6006,513 @@
         <v>930000</v>
       </c>
       <c r="D94">
-        <v>45568.119862400003</v>
+        <v>1307.9718455</v>
       </c>
       <c r="E94">
-        <v>10876.6330084</v>
+        <v>443.84896300000003</v>
       </c>
       <c r="F94">
-        <v>930</v>
+        <v>929</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>940</v>
+      </c>
+      <c r="C95">
+        <v>940000</v>
+      </c>
+      <c r="D95">
+        <v>1339.2140185000001</v>
+      </c>
+      <c r="E95">
+        <v>444.599311</v>
+      </c>
+      <c r="F95">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>950</v>
+      </c>
+      <c r="C96">
+        <v>950000</v>
+      </c>
+      <c r="D96">
+        <v>1448.343867</v>
+      </c>
+      <c r="E96">
+        <v>431.71830749999998</v>
+      </c>
+      <c r="F96">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>960</v>
+      </c>
+      <c r="C97">
+        <v>960000</v>
+      </c>
+      <c r="D97">
+        <v>1512.1664344999999</v>
+      </c>
+      <c r="E97">
+        <v>580.22670300000004</v>
+      </c>
+      <c r="F97">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>970</v>
+      </c>
+      <c r="C98">
+        <v>970000</v>
+      </c>
+      <c r="D98">
+        <v>1297.7208005</v>
+      </c>
+      <c r="E98">
+        <v>429.9725785</v>
+      </c>
+      <c r="F98">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>980</v>
+      </c>
+      <c r="C99">
+        <v>980000</v>
+      </c>
+      <c r="D99">
+        <v>1292.6110415000001</v>
+      </c>
+      <c r="E99">
+        <v>533.9545425</v>
+      </c>
+      <c r="F99">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>990</v>
+      </c>
+      <c r="C100">
+        <v>990000</v>
+      </c>
+      <c r="D100">
+        <v>796.728793</v>
+      </c>
+      <c r="E100">
+        <v>387.67065050000002</v>
+      </c>
+      <c r="F100">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>1000</v>
+      </c>
+      <c r="C101">
+        <v>1000000</v>
+      </c>
+      <c r="D101">
+        <v>1620.1887234999999</v>
+      </c>
+      <c r="E101">
+        <v>547.13937999999996</v>
+      </c>
+      <c r="F101">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>1010</v>
+      </c>
+      <c r="C102">
+        <v>1010000</v>
+      </c>
+      <c r="D102">
+        <v>1697.297603</v>
+      </c>
+      <c r="E102">
+        <v>528.89258749999999</v>
+      </c>
+      <c r="F102">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>1020</v>
+      </c>
+      <c r="C103">
+        <v>1020000</v>
+      </c>
+      <c r="D103">
+        <v>2331.9370924999998</v>
+      </c>
+      <c r="E103">
+        <v>512.35471800000005</v>
+      </c>
+      <c r="F103">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>1030</v>
+      </c>
+      <c r="C104">
+        <v>1030000</v>
+      </c>
+      <c r="D104">
+        <v>1314.9073980000001</v>
+      </c>
+      <c r="E104">
+        <v>498.08871599999998</v>
+      </c>
+      <c r="F104">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>1040</v>
+      </c>
+      <c r="C105">
+        <v>1040000</v>
+      </c>
+      <c r="D105">
+        <v>1369.2737004999999</v>
+      </c>
+      <c r="E105">
+        <v>497.56257799999997</v>
+      </c>
+      <c r="F105">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>1050</v>
+      </c>
+      <c r="C106">
+        <v>1050000</v>
+      </c>
+      <c r="D106">
+        <v>10813.45084</v>
+      </c>
+      <c r="E106">
+        <v>572.58889950000003</v>
+      </c>
+      <c r="F106">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>1060</v>
+      </c>
+      <c r="C107">
+        <v>1060000</v>
+      </c>
+      <c r="D107">
+        <v>1397.1336610000001</v>
+      </c>
+      <c r="E107">
+        <v>530.01994249999996</v>
+      </c>
+      <c r="F107">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>1070</v>
+      </c>
+      <c r="C108">
+        <v>1070000</v>
+      </c>
+      <c r="D108">
+        <v>1498.8798294999999</v>
+      </c>
+      <c r="E108">
+        <v>620.62775850000003</v>
+      </c>
+      <c r="F108">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>1080</v>
+      </c>
+      <c r="C109">
+        <v>1080000</v>
+      </c>
+      <c r="D109">
+        <v>1459.1505239999999</v>
+      </c>
+      <c r="E109">
+        <v>563.80233150000004</v>
+      </c>
+      <c r="F109">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>1090</v>
+      </c>
+      <c r="C110">
+        <v>1090000</v>
+      </c>
+      <c r="D110">
+        <v>1762.9945009999999</v>
+      </c>
+      <c r="E110">
+        <v>649.81186349999996</v>
+      </c>
+      <c r="F110">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>1100</v>
+      </c>
+      <c r="C111">
+        <v>1100000</v>
+      </c>
+      <c r="D111">
+        <v>1871.771391</v>
+      </c>
+      <c r="E111">
+        <v>753.33367550000003</v>
+      </c>
+      <c r="F111">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>1110</v>
+      </c>
+      <c r="C112">
+        <v>1110000</v>
+      </c>
+      <c r="D112">
+        <v>3907.8385515</v>
+      </c>
+      <c r="E112">
+        <v>330.469829</v>
+      </c>
+      <c r="F112">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>1120</v>
+      </c>
+      <c r="C113">
+        <v>1120000</v>
+      </c>
+      <c r="D113">
+        <v>1323.8086370000001</v>
+      </c>
+      <c r="E113">
+        <v>44007.411833500002</v>
+      </c>
+      <c r="F113">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>1130</v>
+      </c>
+      <c r="C114">
+        <v>1130000</v>
+      </c>
+      <c r="D114">
+        <v>39525.584427000002</v>
+      </c>
+      <c r="E114">
+        <v>768.39724349999995</v>
+      </c>
+      <c r="F114">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>1140</v>
+      </c>
+      <c r="C115">
+        <v>1140000</v>
+      </c>
+      <c r="D115">
+        <v>10347.4005425</v>
+      </c>
+      <c r="E115">
+        <v>796.40428199999997</v>
+      </c>
+      <c r="F115">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>1150</v>
+      </c>
+      <c r="C116">
+        <v>1150000</v>
+      </c>
+      <c r="D116">
+        <v>46425.887821999997</v>
+      </c>
+      <c r="E116">
+        <v>1638.8276265</v>
+      </c>
+      <c r="F116">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <v>1160</v>
+      </c>
+      <c r="C117">
+        <v>1160000</v>
+      </c>
+      <c r="D117">
+        <v>67711.600704500001</v>
+      </c>
+      <c r="E117">
+        <v>19452.712662000002</v>
+      </c>
+      <c r="F117">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>1170</v>
+      </c>
+      <c r="C118">
+        <v>1170000</v>
+      </c>
+      <c r="D118">
+        <v>98326.486252500006</v>
+      </c>
+      <c r="E118">
+        <v>35129.743529500003</v>
+      </c>
+      <c r="F118">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>1180</v>
+      </c>
+      <c r="C119">
+        <v>1180000</v>
+      </c>
+      <c r="D119">
+        <v>167266.78026199999</v>
+      </c>
+      <c r="E119">
+        <v>103094.283599</v>
+      </c>
+      <c r="F119">
+        <v>1180</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">

--- a/jadex-applications-micro/EvalHSU_SSPvsAwarenessDynservices1000.xlsx
+++ b/jadex-applications-micro/EvalHSU_SSPvsAwarenessDynservices1000.xlsx
@@ -44,16 +44,16 @@
     <t>Search Time (SP)</t>
   </si>
   <si>
-    <t>Creation Time (Awa)</t>
-  </si>
-  <si>
-    <t>Search Time (Awa)</t>
-  </si>
-  <si>
     <t>SP Settings: '-spcnt 3 -platformcnt -1 -personcnt 1000'</t>
   </si>
   <si>
-    <t>Awa Settings: '-spcnt 0 -platformcnt -1 -personcnt 1000'</t>
+    <t>Creation Time P2P-multi)</t>
+  </si>
+  <si>
+    <t>Search Time P2P-multi)</t>
+  </si>
+  <si>
+    <t>P2P-multi) Settings: '-spcnt 0 -platformcnt -1 -personcnt 1000'</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
             <c:ptCount val="1"/>
             <c:pt idx="0">
               <c:v>SP Settings: '-spcnt 3 -platformcnt -1 -personcnt 1000'
-Awa Settings: '-spcnt 0 -platformcnt -1 -personcnt 1000'</c:v>
+P2P-multi) Settings: '-spcnt 0 -platformcnt -1 -personcnt 1000'</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1173,7 +1173,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Creation Time (Awa)</c:v>
+                  <c:v>Creation Time P2P-multi)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1197,175 +1197,220 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>668.98159699999997</c:v>
+                  <c:v>615.5178535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>563.49967000000004</c:v>
+                  <c:v>563.89617999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>544.68612050000002</c:v>
+                  <c:v>551.95908799999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>550.73891049999997</c:v>
+                  <c:v>561.08922900000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>552.95945449999999</c:v>
+                  <c:v>556.04399149999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>552.74243000000001</c:v>
+                  <c:v>555.27634</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>548.29943500000002</c:v>
+                  <c:v>558.03387350000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>545.61639449999996</c:v>
+                  <c:v>553.49057849999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>550.70034450000003</c:v>
+                  <c:v>554.87777700000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>555.50406899999996</c:v>
+                  <c:v>556.58156750000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>558.35838450000006</c:v>
+                  <c:v>579.67167700000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>577.79866549999997</c:v>
+                  <c:v>574.38785849999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>580.84463649999998</c:v>
+                  <c:v>586.61676050000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>580.86149950000004</c:v>
+                  <c:v>574.78612799999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>592.04281849999995</c:v>
+                  <c:v>599.20580700000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>612.17464600000005</c:v>
+                  <c:v>599.400396</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>614.22714299999996</c:v>
+                  <c:v>607.47474199999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>620.47906699999999</c:v>
+                  <c:v>629.27707299999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>627.4503995</c:v>
+                  <c:v>635.55040699999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>639.69000649999998</c:v>
+                  <c:v>638.4866925</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>634.71090249999997</c:v>
+                  <c:v>636.76838450000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>639.46594300000004</c:v>
+                  <c:v>649.82652700000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>655.79588000000001</c:v>
+                  <c:v>666.29415700000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>668.285798</c:v>
+                  <c:v>665.14407200000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>671.53940899999998</c:v>
+                  <c:v>681.77578949999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>690.46777599999996</c:v>
+                  <c:v>696.07434550000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>705.92272149999997</c:v>
+                  <c:v>709.72036100000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>706.01818300000002</c:v>
+                  <c:v>691.46081100000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>717.04010600000004</c:v>
+                  <c:v>716.65268700000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>765.23454800000002</c:v>
+                  <c:v>734.511034</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>769.37253450000003</c:v>
+                  <c:v>760.61397450000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>792.21643849999998</c:v>
+                  <c:v>787.16914750000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>808.94141749999994</c:v>
+                  <c:v>809.32341050000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>845.11283849999995</c:v>
+                  <c:v>831.07544499999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>795.47928750000005</c:v>
+                  <c:v>828.17669850000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>853.14891150000005</c:v>
+                  <c:v>820.78114200000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>858.54930750000005</c:v>
+                  <c:v>876.55707900000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>943.94398450000006</c:v>
+                  <c:v>909.96554000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>965.16386799999998</c:v>
+                  <c:v>948.79404650000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1018.263069</c:v>
+                  <c:v>976.23183500000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1037.807757</c:v>
+                  <c:v>1051.7435295</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1028.283745</c:v>
+                  <c:v>999.26240949999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1109.0817505</c:v>
+                  <c:v>1027.5599380000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1156.0013200000001</c:v>
+                  <c:v>1051.709509</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1202.9082774999999</c:v>
+                  <c:v>1269.8190480000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1384.4413815</c:v>
+                  <c:v>1203.918909</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1764.0183300000001</c:v>
+                  <c:v>1589.581641</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1480.8309995</c:v>
+                  <c:v>1358.7798224999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1466.6732165000001</c:v>
+                  <c:v>1963.2118190000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1592.2419534999999</c:v>
+                  <c:v>1292.9186890000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1563.3569910000001</c:v>
+                  <c:v>1666.5261384999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2108.8227874999998</c:v>
+                  <c:v>1598.889508</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19939.169587</c:v>
+                  <c:v>1965.7891340000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2599.2946695000001</c:v>
+                  <c:v>14967.06914</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2559.4468805000001</c:v>
+                  <c:v>14447.477821</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3065.4460005000001</c:v>
+                  <c:v>3237.0931890000002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2661.1726669999998</c:v>
+                  <c:v>2510.9172225000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2433.1948094999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2679.896033</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2569.3810400000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3266.5315645000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>54294.022435500003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4075.2596225000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66155.104039500002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>62955.387345000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5645.9046850000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4935.9521960000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3992.1529435000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>67606.528191000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6523.5895595000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>36275.291150500001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>57708.502382999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,7 +1431,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Search Time (Awa)</c:v>
+                  <c:v>Search Time P2P-multi)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1719,175 +1764,220 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>60.770437999999999</c:v>
+                  <c:v>64.278172499999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.914583499999999</c:v>
+                  <c:v>54.851089000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.243713</c:v>
+                  <c:v>61.938412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60.824694000000001</c:v>
+                  <c:v>64.208225999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.354278000000001</c:v>
+                  <c:v>65.427524000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.1105655</c:v>
+                  <c:v>65.315639000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.042524999999998</c:v>
+                  <c:v>61.792946999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.911430500000002</c:v>
+                  <c:v>57.230735500000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.878803499999997</c:v>
+                  <c:v>66.503996000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.781728999999999</c:v>
+                  <c:v>62.373341000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.980350999999999</c:v>
+                  <c:v>67.450839000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67.015323499999994</c:v>
+                  <c:v>62.371874499999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.949190000000002</c:v>
+                  <c:v>70.648435000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71.386758999999998</c:v>
+                  <c:v>72.9748515</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74.516753499999993</c:v>
+                  <c:v>79.049783500000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78.654740500000003</c:v>
+                  <c:v>80.022875499999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.480313499999994</c:v>
+                  <c:v>77.847936000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>81.074126000000007</c:v>
+                  <c:v>79.610235500000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.502016499999996</c:v>
+                  <c:v>88.709875499999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>94.097368000000003</c:v>
+                  <c:v>91.615514000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>91.405528500000003</c:v>
+                  <c:v>97.535302999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>98.560011500000002</c:v>
+                  <c:v>95.220324500000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>101.324144</c:v>
+                  <c:v>104.44959299999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>103.09612199999999</c:v>
+                  <c:v>109.4679965</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>107.84603</c:v>
+                  <c:v>114.452966</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>116.63978349999999</c:v>
+                  <c:v>118.9351125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>113.3352885</c:v>
+                  <c:v>114.3473865</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>122.284918</c:v>
+                  <c:v>120.7092895</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>128.57496900000001</c:v>
+                  <c:v>122.481854</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>124.58362049999999</c:v>
+                  <c:v>134.23330150000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>127.490285</c:v>
+                  <c:v>123.02353549999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>133.54908699999999</c:v>
+                  <c:v>130.96121400000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>154.86413949999999</c:v>
+                  <c:v>141.62680599999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>144.26746850000001</c:v>
+                  <c:v>144.65987250000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>153.35127249999999</c:v>
+                  <c:v>142.85534150000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>164.425691</c:v>
+                  <c:v>145.72871900000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>160.51763299999999</c:v>
+                  <c:v>156.694332</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>165.26328899999999</c:v>
+                  <c:v>159.17970550000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>168.285798</c:v>
+                  <c:v>166.4538455</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>181.02734849999999</c:v>
+                  <c:v>186.04912400000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>197.07881850000001</c:v>
+                  <c:v>178.157636</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>191.61052849999999</c:v>
+                  <c:v>184.21174550000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>198.66808399999999</c:v>
+                  <c:v>186.06979949999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>195.23586800000001</c:v>
+                  <c:v>197.09656100000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>229.68971350000001</c:v>
+                  <c:v>206.73011249999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>237.48060699999999</c:v>
+                  <c:v>211.9722855</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>250.4874255</c:v>
+                  <c:v>219.58823949999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>254.28477150000001</c:v>
+                  <c:v>247.545861</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>251.719041</c:v>
+                  <c:v>241.10506599999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>286.46938899999998</c:v>
+                  <c:v>232.71926099999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>291.92565450000001</c:v>
+                  <c:v>240.09091549999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>319.355525</c:v>
+                  <c:v>274.97177199999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>344.9359925</c:v>
+                  <c:v>295.83825849999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>362.28286550000001</c:v>
+                  <c:v>312.02052950000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>380.30222149999997</c:v>
+                  <c:v>342.873085</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>404.84243700000002</c:v>
+                  <c:v>365.44218749999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>381.70320400000003</c:v>
+                  <c:v>370.66867050000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>355.92609449999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>404.02155599999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>431.29906849999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>443.00447250000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5535.8282865000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>517.596451</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>587.68927350000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>603.40024900000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>750.39973599999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1183.50055</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>985.55920500000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>964.77381049999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1121.891194</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1079.655107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1052.5616245000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3100,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -3112,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
@@ -3153,13 +3243,13 @@
         <v>10000</v>
       </c>
       <c r="K2">
-        <v>668.98159699999997</v>
+        <v>615.5178535</v>
       </c>
       <c r="L2">
-        <v>60.770437999999999</v>
+        <v>64.278172499999997</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -3191,18 +3281,18 @@
         <v>20000</v>
       </c>
       <c r="K3">
-        <v>563.49967000000004</v>
+        <v>563.89617999999996</v>
       </c>
       <c r="L3">
-        <v>56.914583499999999</v>
+        <v>54.851089000000002</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R3" t="str">
         <f>G1&amp;CHAR(10)&amp;N1</f>
         <v>SP Settings: '-spcnt 3 -platformcnt -1 -personcnt 1000'
-Awa Settings: '-spcnt 0 -platformcnt -1 -personcnt 1000'</v>
+P2P-multi) Settings: '-spcnt 0 -platformcnt -1 -personcnt 1000'</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -3234,13 +3324,13 @@
         <v>30000</v>
       </c>
       <c r="K4">
-        <v>544.68612050000002</v>
+        <v>551.95908799999995</v>
       </c>
       <c r="L4">
-        <v>68.243713</v>
+        <v>61.938412</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -3272,13 +3362,13 @@
         <v>40000</v>
       </c>
       <c r="K5">
-        <v>550.73891049999997</v>
+        <v>561.08922900000005</v>
       </c>
       <c r="L5">
-        <v>60.824694000000001</v>
+        <v>64.208225999999996</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -3310,13 +3400,13 @@
         <v>50000</v>
       </c>
       <c r="K6">
-        <v>552.95945449999999</v>
+        <v>556.04399149999995</v>
       </c>
       <c r="L6">
-        <v>62.354278000000001</v>
+        <v>65.427524000000005</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -3348,13 +3438,13 @@
         <v>60000</v>
       </c>
       <c r="K7">
-        <v>552.74243000000001</v>
+        <v>555.27634</v>
       </c>
       <c r="L7">
-        <v>60.1105655</v>
+        <v>65.315639000000004</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -3386,13 +3476,13 @@
         <v>70000</v>
       </c>
       <c r="K8">
-        <v>548.29943500000002</v>
+        <v>558.03387350000003</v>
       </c>
       <c r="L8">
-        <v>62.042524999999998</v>
+        <v>61.792946999999998</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -3424,13 +3514,13 @@
         <v>80000</v>
       </c>
       <c r="K9">
-        <v>545.61639449999996</v>
+        <v>553.49057849999997</v>
       </c>
       <c r="L9">
-        <v>59.911430500000002</v>
+        <v>57.230735500000002</v>
       </c>
       <c r="M9">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -3462,13 +3552,13 @@
         <v>90000</v>
       </c>
       <c r="K10">
-        <v>550.70034450000003</v>
+        <v>554.87777700000004</v>
       </c>
       <c r="L10">
-        <v>60.878803499999997</v>
+        <v>66.503996000000001</v>
       </c>
       <c r="M10">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -3500,13 +3590,13 @@
         <v>100000</v>
       </c>
       <c r="K11">
-        <v>555.50406899999996</v>
+        <v>556.58156750000001</v>
       </c>
       <c r="L11">
-        <v>62.781728999999999</v>
+        <v>62.373341000000003</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -3538,13 +3628,13 @@
         <v>110000</v>
       </c>
       <c r="K12">
-        <v>558.35838450000006</v>
+        <v>579.67167700000005</v>
       </c>
       <c r="L12">
-        <v>67.980350999999999</v>
+        <v>67.450839000000002</v>
       </c>
       <c r="M12">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -3576,13 +3666,13 @@
         <v>120000</v>
       </c>
       <c r="K13">
-        <v>577.79866549999997</v>
+        <v>574.38785849999999</v>
       </c>
       <c r="L13">
-        <v>67.015323499999994</v>
+        <v>62.371874499999997</v>
       </c>
       <c r="M13">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -3614,13 +3704,13 @@
         <v>130000</v>
       </c>
       <c r="K14">
-        <v>580.84463649999998</v>
+        <v>586.61676050000005</v>
       </c>
       <c r="L14">
-        <v>68.949190000000002</v>
+        <v>70.648435000000006</v>
       </c>
       <c r="M14">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -3652,13 +3742,13 @@
         <v>140000</v>
       </c>
       <c r="K15">
-        <v>580.86149950000004</v>
+        <v>574.78612799999996</v>
       </c>
       <c r="L15">
-        <v>71.386758999999998</v>
+        <v>72.9748515</v>
       </c>
       <c r="M15">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -3690,13 +3780,13 @@
         <v>150000</v>
       </c>
       <c r="K16">
-        <v>592.04281849999995</v>
+        <v>599.20580700000005</v>
       </c>
       <c r="L16">
-        <v>74.516753499999993</v>
+        <v>79.049783500000004</v>
       </c>
       <c r="M16">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -3728,13 +3818,13 @@
         <v>160000</v>
       </c>
       <c r="K17">
-        <v>612.17464600000005</v>
+        <v>599.400396</v>
       </c>
       <c r="L17">
-        <v>78.654740500000003</v>
+        <v>80.022875499999998</v>
       </c>
       <c r="M17">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -3766,13 +3856,13 @@
         <v>170000</v>
       </c>
       <c r="K18">
-        <v>614.22714299999996</v>
+        <v>607.47474199999999</v>
       </c>
       <c r="L18">
-        <v>79.480313499999994</v>
+        <v>77.847936000000004</v>
       </c>
       <c r="M18">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -3804,13 +3894,13 @@
         <v>180000</v>
       </c>
       <c r="K19">
-        <v>620.47906699999999</v>
+        <v>629.27707299999997</v>
       </c>
       <c r="L19">
-        <v>81.074126000000007</v>
+        <v>79.610235500000002</v>
       </c>
       <c r="M19">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -3842,13 +3932,13 @@
         <v>190000</v>
       </c>
       <c r="K20">
-        <v>627.4503995</v>
+        <v>635.55040699999995</v>
       </c>
       <c r="L20">
-        <v>87.502016499999996</v>
+        <v>88.709875499999995</v>
       </c>
       <c r="M20">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -3880,13 +3970,13 @@
         <v>200000</v>
       </c>
       <c r="K21">
-        <v>639.69000649999998</v>
+        <v>638.4866925</v>
       </c>
       <c r="L21">
-        <v>94.097368000000003</v>
+        <v>91.615514000000005</v>
       </c>
       <c r="M21">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -3918,13 +4008,13 @@
         <v>210000</v>
       </c>
       <c r="K22">
-        <v>634.71090249999997</v>
+        <v>636.76838450000002</v>
       </c>
       <c r="L22">
-        <v>91.405528500000003</v>
+        <v>97.535302999999999</v>
       </c>
       <c r="M22">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -3956,13 +4046,13 @@
         <v>220000</v>
       </c>
       <c r="K23">
-        <v>639.46594300000004</v>
+        <v>649.82652700000006</v>
       </c>
       <c r="L23">
-        <v>98.560011500000002</v>
+        <v>95.220324500000004</v>
       </c>
       <c r="M23">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -3994,13 +4084,13 @@
         <v>230000</v>
       </c>
       <c r="K24">
-        <v>655.79588000000001</v>
+        <v>666.29415700000004</v>
       </c>
       <c r="L24">
-        <v>101.324144</v>
+        <v>104.44959299999999</v>
       </c>
       <c r="M24">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -4032,13 +4122,13 @@
         <v>240000</v>
       </c>
       <c r="K25">
-        <v>668.285798</v>
+        <v>665.14407200000005</v>
       </c>
       <c r="L25">
-        <v>103.09612199999999</v>
+        <v>109.4679965</v>
       </c>
       <c r="M25">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -4070,13 +4160,13 @@
         <v>250000</v>
       </c>
       <c r="K26">
-        <v>671.53940899999998</v>
+        <v>681.77578949999997</v>
       </c>
       <c r="L26">
-        <v>107.84603</v>
+        <v>114.452966</v>
       </c>
       <c r="M26">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -4108,13 +4198,13 @@
         <v>260000</v>
       </c>
       <c r="K27">
-        <v>690.46777599999996</v>
+        <v>696.07434550000005</v>
       </c>
       <c r="L27">
-        <v>116.63978349999999</v>
+        <v>118.9351125</v>
       </c>
       <c r="M27">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -4146,13 +4236,13 @@
         <v>270000</v>
       </c>
       <c r="K28">
-        <v>705.92272149999997</v>
+        <v>709.72036100000003</v>
       </c>
       <c r="L28">
-        <v>113.3352885</v>
+        <v>114.3473865</v>
       </c>
       <c r="M28">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -4184,13 +4274,13 @@
         <v>280000</v>
       </c>
       <c r="K29">
-        <v>706.01818300000002</v>
+        <v>691.46081100000004</v>
       </c>
       <c r="L29">
-        <v>122.284918</v>
+        <v>120.7092895</v>
       </c>
       <c r="M29">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -4222,13 +4312,13 @@
         <v>290000</v>
       </c>
       <c r="K30">
-        <v>717.04010600000004</v>
+        <v>716.65268700000001</v>
       </c>
       <c r="L30">
-        <v>128.57496900000001</v>
+        <v>122.481854</v>
       </c>
       <c r="M30">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -4260,13 +4350,13 @@
         <v>300000</v>
       </c>
       <c r="K31">
-        <v>765.23454800000002</v>
+        <v>734.511034</v>
       </c>
       <c r="L31">
-        <v>124.58362049999999</v>
+        <v>134.23330150000001</v>
       </c>
       <c r="M31">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -4298,13 +4388,13 @@
         <v>310000</v>
       </c>
       <c r="K32">
-        <v>769.37253450000003</v>
+        <v>760.61397450000004</v>
       </c>
       <c r="L32">
-        <v>127.490285</v>
+        <v>123.02353549999999</v>
       </c>
       <c r="M32">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -4336,13 +4426,13 @@
         <v>320000</v>
       </c>
       <c r="K33">
-        <v>792.21643849999998</v>
+        <v>787.16914750000001</v>
       </c>
       <c r="L33">
-        <v>133.54908699999999</v>
+        <v>130.96121400000001</v>
       </c>
       <c r="M33">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -4374,13 +4464,13 @@
         <v>330000</v>
       </c>
       <c r="K34">
-        <v>808.94141749999994</v>
+        <v>809.32341050000002</v>
       </c>
       <c r="L34">
-        <v>154.86413949999999</v>
+        <v>141.62680599999999</v>
       </c>
       <c r="M34">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -4412,13 +4502,13 @@
         <v>340000</v>
       </c>
       <c r="K35">
-        <v>845.11283849999995</v>
+        <v>831.07544499999995</v>
       </c>
       <c r="L35">
-        <v>144.26746850000001</v>
+        <v>144.65987250000001</v>
       </c>
       <c r="M35">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -4450,13 +4540,13 @@
         <v>350000</v>
       </c>
       <c r="K36">
-        <v>795.47928750000005</v>
+        <v>828.17669850000004</v>
       </c>
       <c r="L36">
-        <v>153.35127249999999</v>
+        <v>142.85534150000001</v>
       </c>
       <c r="M36">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -4488,13 +4578,13 @@
         <v>360000</v>
       </c>
       <c r="K37">
-        <v>853.14891150000005</v>
+        <v>820.78114200000005</v>
       </c>
       <c r="L37">
-        <v>164.425691</v>
+        <v>145.72871900000001</v>
       </c>
       <c r="M37">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -4526,13 +4616,13 @@
         <v>370000</v>
       </c>
       <c r="K38">
-        <v>858.54930750000005</v>
+        <v>876.55707900000004</v>
       </c>
       <c r="L38">
-        <v>160.51763299999999</v>
+        <v>156.694332</v>
       </c>
       <c r="M38">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -4564,13 +4654,13 @@
         <v>380000</v>
       </c>
       <c r="K39">
-        <v>943.94398450000006</v>
+        <v>909.96554000000003</v>
       </c>
       <c r="L39">
-        <v>165.26328899999999</v>
+        <v>159.17970550000001</v>
       </c>
       <c r="M39">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -4602,13 +4692,13 @@
         <v>390000</v>
       </c>
       <c r="K40">
-        <v>965.16386799999998</v>
+        <v>948.79404650000004</v>
       </c>
       <c r="L40">
-        <v>168.285798</v>
+        <v>166.4538455</v>
       </c>
       <c r="M40">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -4640,13 +4730,13 @@
         <v>400000</v>
       </c>
       <c r="K41">
-        <v>1018.263069</v>
+        <v>976.23183500000005</v>
       </c>
       <c r="L41">
-        <v>181.02734849999999</v>
+        <v>186.04912400000001</v>
       </c>
       <c r="M41">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -4678,13 +4768,13 @@
         <v>410000</v>
       </c>
       <c r="K42">
-        <v>1037.807757</v>
+        <v>1051.7435295</v>
       </c>
       <c r="L42">
-        <v>197.07881850000001</v>
+        <v>178.157636</v>
       </c>
       <c r="M42">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -4716,13 +4806,13 @@
         <v>420000</v>
       </c>
       <c r="K43">
-        <v>1028.283745</v>
+        <v>999.26240949999999</v>
       </c>
       <c r="L43">
-        <v>191.61052849999999</v>
+        <v>184.21174550000001</v>
       </c>
       <c r="M43">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -4754,13 +4844,13 @@
         <v>430000</v>
       </c>
       <c r="K44">
-        <v>1109.0817505</v>
+        <v>1027.5599380000001</v>
       </c>
       <c r="L44">
-        <v>198.66808399999999</v>
+        <v>186.06979949999999</v>
       </c>
       <c r="M44">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -4792,13 +4882,13 @@
         <v>440000</v>
       </c>
       <c r="K45">
-        <v>1156.0013200000001</v>
+        <v>1051.709509</v>
       </c>
       <c r="L45">
-        <v>195.23586800000001</v>
+        <v>197.09656100000001</v>
       </c>
       <c r="M45">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -4830,13 +4920,13 @@
         <v>450000</v>
       </c>
       <c r="K46">
-        <v>1202.9082774999999</v>
+        <v>1269.8190480000001</v>
       </c>
       <c r="L46">
-        <v>229.68971350000001</v>
+        <v>206.73011249999999</v>
       </c>
       <c r="M46">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -4868,13 +4958,13 @@
         <v>460000</v>
       </c>
       <c r="K47">
-        <v>1384.4413815</v>
+        <v>1203.918909</v>
       </c>
       <c r="L47">
-        <v>237.48060699999999</v>
+        <v>211.9722855</v>
       </c>
       <c r="M47">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -4906,13 +4996,13 @@
         <v>470000</v>
       </c>
       <c r="K48">
-        <v>1764.0183300000001</v>
+        <v>1589.581641</v>
       </c>
       <c r="L48">
-        <v>250.4874255</v>
+        <v>219.58823949999999</v>
       </c>
       <c r="M48">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -4944,13 +5034,13 @@
         <v>480000</v>
       </c>
       <c r="K49">
-        <v>1480.8309995</v>
+        <v>1358.7798224999999</v>
       </c>
       <c r="L49">
-        <v>254.28477150000001</v>
+        <v>247.545861</v>
       </c>
       <c r="M49">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -4982,13 +5072,13 @@
         <v>490000</v>
       </c>
       <c r="K50">
-        <v>1466.6732165000001</v>
+        <v>1963.2118190000001</v>
       </c>
       <c r="L50">
-        <v>251.719041</v>
+        <v>241.10506599999999</v>
       </c>
       <c r="M50">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -5020,13 +5110,13 @@
         <v>500000</v>
       </c>
       <c r="K51">
-        <v>1592.2419534999999</v>
+        <v>1292.9186890000001</v>
       </c>
       <c r="L51">
-        <v>286.46938899999998</v>
+        <v>232.71926099999999</v>
       </c>
       <c r="M51">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -5058,13 +5148,13 @@
         <v>510000</v>
       </c>
       <c r="K52">
-        <v>1563.3569910000001</v>
+        <v>1666.5261384999999</v>
       </c>
       <c r="L52">
-        <v>291.92565450000001</v>
+        <v>240.09091549999999</v>
       </c>
       <c r="M52">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -5096,13 +5186,13 @@
         <v>520000</v>
       </c>
       <c r="K53">
-        <v>2108.8227874999998</v>
+        <v>1598.889508</v>
       </c>
       <c r="L53">
-        <v>319.355525</v>
+        <v>274.97177199999999</v>
       </c>
       <c r="M53">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -5134,13 +5224,13 @@
         <v>530000</v>
       </c>
       <c r="K54">
-        <v>19939.169587</v>
+        <v>1965.7891340000001</v>
       </c>
       <c r="L54">
-        <v>344.9359925</v>
+        <v>295.83825849999999</v>
       </c>
       <c r="M54">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -5172,13 +5262,13 @@
         <v>540000</v>
       </c>
       <c r="K55">
-        <v>2599.2946695000001</v>
+        <v>14967.06914</v>
       </c>
       <c r="L55">
-        <v>362.28286550000001</v>
+        <v>312.02052950000001</v>
       </c>
       <c r="M55">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -5210,13 +5300,13 @@
         <v>550000</v>
       </c>
       <c r="K56">
-        <v>2559.4468805000001</v>
+        <v>14447.477821</v>
       </c>
       <c r="L56">
-        <v>380.30222149999997</v>
+        <v>342.873085</v>
       </c>
       <c r="M56">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -5248,13 +5338,13 @@
         <v>560000</v>
       </c>
       <c r="K57">
-        <v>3065.4460005000001</v>
+        <v>3237.0931890000002</v>
       </c>
       <c r="L57">
-        <v>404.84243700000002</v>
+        <v>365.44218749999999</v>
       </c>
       <c r="M57">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -5286,13 +5376,13 @@
         <v>570000</v>
       </c>
       <c r="K58">
-        <v>2661.1726669999998</v>
+        <v>2510.9172225000002</v>
       </c>
       <c r="L58">
-        <v>381.70320400000003</v>
+        <v>370.66867050000002</v>
       </c>
       <c r="M58">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -5314,6 +5404,24 @@
       <c r="F59">
         <v>580</v>
       </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>580</v>
+      </c>
+      <c r="J59">
+        <v>580000</v>
+      </c>
+      <c r="K59">
+        <v>2433.1948094999998</v>
+      </c>
+      <c r="L59">
+        <v>355.92609449999998</v>
+      </c>
+      <c r="M59">
+        <v>575</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -5334,6 +5442,24 @@
       <c r="F60">
         <v>590</v>
       </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>590</v>
+      </c>
+      <c r="J60">
+        <v>590000</v>
+      </c>
+      <c r="K60">
+        <v>2679.896033</v>
+      </c>
+      <c r="L60">
+        <v>404.02155599999998</v>
+      </c>
+      <c r="M60">
+        <v>585</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -5354,6 +5480,24 @@
       <c r="F61">
         <v>600</v>
       </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>600</v>
+      </c>
+      <c r="J61">
+        <v>600000</v>
+      </c>
+      <c r="K61">
+        <v>2569.3810400000002</v>
+      </c>
+      <c r="L61">
+        <v>431.29906849999998</v>
+      </c>
+      <c r="M61">
+        <v>594</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -5374,6 +5518,24 @@
       <c r="F62">
         <v>610</v>
       </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>610</v>
+      </c>
+      <c r="J62">
+        <v>610000</v>
+      </c>
+      <c r="K62">
+        <v>3266.5315645000001</v>
+      </c>
+      <c r="L62">
+        <v>443.00447250000002</v>
+      </c>
+      <c r="M62">
+        <v>604</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -5394,6 +5556,24 @@
       <c r="F63">
         <v>620</v>
       </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>620</v>
+      </c>
+      <c r="J63">
+        <v>620000</v>
+      </c>
+      <c r="K63">
+        <v>54294.022435500003</v>
+      </c>
+      <c r="L63">
+        <v>5535.8282865000001</v>
+      </c>
+      <c r="M63">
+        <v>614</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -5414,8 +5594,26 @@
       <c r="F64">
         <v>630</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>630</v>
+      </c>
+      <c r="J64">
+        <v>630000</v>
+      </c>
+      <c r="K64">
+        <v>4075.2596225000002</v>
+      </c>
+      <c r="L64">
+        <v>517.596451</v>
+      </c>
+      <c r="M64">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -5434,8 +5632,26 @@
       <c r="F65">
         <v>640</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>640</v>
+      </c>
+      <c r="J65">
+        <v>640000</v>
+      </c>
+      <c r="K65">
+        <v>66155.104039500002</v>
+      </c>
+      <c r="L65">
+        <v>587.68927350000001</v>
+      </c>
+      <c r="M65">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -5454,8 +5670,26 @@
       <c r="F66">
         <v>650</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>650</v>
+      </c>
+      <c r="J66">
+        <v>650000</v>
+      </c>
+      <c r="K66">
+        <v>62955.387345000003</v>
+      </c>
+      <c r="L66">
+        <v>603.40024900000003</v>
+      </c>
+      <c r="M66">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -5474,8 +5708,26 @@
       <c r="F67">
         <v>660</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>660</v>
+      </c>
+      <c r="J67">
+        <v>660000</v>
+      </c>
+      <c r="K67">
+        <v>5645.9046850000004</v>
+      </c>
+      <c r="L67">
+        <v>750.39973599999996</v>
+      </c>
+      <c r="M67">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -5494,8 +5746,26 @@
       <c r="F68">
         <v>670</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>670</v>
+      </c>
+      <c r="J68">
+        <v>670000</v>
+      </c>
+      <c r="K68">
+        <v>4935.9521960000002</v>
+      </c>
+      <c r="L68">
+        <v>1183.50055</v>
+      </c>
+      <c r="M68">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
@@ -5514,8 +5784,26 @@
       <c r="F69">
         <v>680</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>680</v>
+      </c>
+      <c r="J69">
+        <v>680000</v>
+      </c>
+      <c r="K69">
+        <v>3992.1529435000002</v>
+      </c>
+      <c r="L69">
+        <v>985.55920500000002</v>
+      </c>
+      <c r="M69">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
@@ -5534,8 +5822,26 @@
       <c r="F70">
         <v>690</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>690</v>
+      </c>
+      <c r="J70">
+        <v>690000</v>
+      </c>
+      <c r="K70">
+        <v>67606.528191000005</v>
+      </c>
+      <c r="L70">
+        <v>964.77381049999997</v>
+      </c>
+      <c r="M70">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
@@ -5554,8 +5860,26 @@
       <c r="F71">
         <v>700</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>700</v>
+      </c>
+      <c r="J71">
+        <v>700000</v>
+      </c>
+      <c r="K71">
+        <v>6523.5895595000002</v>
+      </c>
+      <c r="L71">
+        <v>1121.891194</v>
+      </c>
+      <c r="M71">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -5574,8 +5898,26 @@
       <c r="F72">
         <v>710</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>710</v>
+      </c>
+      <c r="J72">
+        <v>710000</v>
+      </c>
+      <c r="K72">
+        <v>36275.291150500001</v>
+      </c>
+      <c r="L72">
+        <v>1079.655107</v>
+      </c>
+      <c r="M72">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -5594,8 +5936,26 @@
       <c r="F73">
         <v>720</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>720</v>
+      </c>
+      <c r="J73">
+        <v>720000</v>
+      </c>
+      <c r="K73">
+        <v>57708.502382999999</v>
+      </c>
+      <c r="L73">
+        <v>1052.5616245000001</v>
+      </c>
+      <c r="M73">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -5615,7 +5975,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
@@ -5635,7 +5995,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -5655,7 +6015,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3</v>
       </c>
@@ -5675,7 +6035,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -5695,7 +6055,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3</v>
       </c>
@@ -5715,7 +6075,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3</v>
       </c>
